--- a/basis.xlsx
+++ b/basis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3C136-DE9D-470D-853D-52FEEC9E19B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC192E0-70B2-441C-AB36-EF74109712E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -479,118 +479,118 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2723</v>
+        <v>2704.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>3613.6</v>
+        <v>3591</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2740.8</v>
+        <v>2721.4</v>
         <stp/>
         <stp>IH1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>4748.4000000000005</v>
+        <v>4740.6000000000004</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4938.4000000000005</v>
+        <v>4938.8</v>
         <stp/>
         <stp>IC1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>4869</v>
+        <v>4862.6000000000004</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>3657.2000000000003</v>
+        <v>3638.6</v>
         <stp/>
         <stp>IF1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3632.8</v>
+        <v>3616</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2715.6</v>
+        <v>2697.2000000000003</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2721</v>
+        <v>2701.8</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3613.8</v>
+        <v>3596.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4677.2</v>
+        <v>4658</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3668.73</v>
+        <v>3645.15</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
-        <tr r="E5" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="L2" s="1"/>
         <tr r="E2" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
+        <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2741.11</v>
+        <v>2724.73</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E8" s="1"/>
+        <tr r="E9" s="1"/>
         <tr r="E10" s="1"/>
-        <tr r="E9" s="1"/>
         <tr r="E11" s="1"/>
-        <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>5005.9000000000005</v>
+        <v>4965.6099999999997</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E14" s="1"/>
+        <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
-        <tr r="E15" s="1"/>
-        <tr r="E14" s="1"/>
         <tr r="E17" s="1"/>
       </tp>
     </main>
@@ -4945,29 +4945,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4995,10 +4995,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5011,23 +5011,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3657.2000000000003</v>
+        <v>3638.6</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-11.529999999999745</v>
+        <v>-6.5500000000001819</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-19.451300000000174</v>
+        <v>-11.525500000000193</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-3.1427807831356544E-3</v>
+        <v>-1.7969080726246548E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.28677874646112844</v>
+        <v>-0.21862381550266632</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5035,15 +5035,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3668.73</v>
+        <v>3645.15</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3632.8</v>
+        <v>3616</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-35.929999999999836</v>
+        <v>-29.150000000000091</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-34.851300000000265</v>
+        <v>-35.925499999999829</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-9.7935918072910699E-3</v>
+        <v>-7.9969267659553284E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.1657974606698472E-2</v>
+        <v>-7.6812586041413014E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>43542</v>
       </c>
@@ -5093,23 +5093,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3613.6</v>
+        <v>3591</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-55.130000000000109</v>
+        <v>-54.150000000000091</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-53.851300000000265</v>
+        <v>-55.125500000000102</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.5027016875478994E-2</v>
+        <v>-1.4855354524064507E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.2191239688844862E-2</v>
+        <v>-4.2032592258011973E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>43543</v>
       </c>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3613.8</v>
+        <v>3596.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-54.929999999999836</v>
+        <v>-48.550000000000182</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-47.451300000000174</v>
+        <v>-54.925499999999829</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.4972502031018629E-2</v>
+        <v>-1.3319066706248075E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.4954170051697717E-2</v>
+        <v>-2.2300272237525447E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5154,14 +5154,14 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>43544</v>
       </c>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>43545</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>43546</v>
       </c>
@@ -5201,30 +5201,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2740.8</v>
+        <v>2721.4</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-0.30999999999994543</v>
+        <v>-3.3299999999999272</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-8.7588999999998123</v>
+        <v>-0.31179999999994834</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1309279687167281E-4</v>
+        <v>-1.222137781758242E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-1.0319717714540143E-2</v>
+        <v>-0.14869343011391944</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-05-17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>43549</v>
       </c>
@@ -5237,30 +5237,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2723</v>
+        <v>2704.4</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-18.110000000000127</v>
+        <v>-20.329999999999927</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-26.158899999999903</v>
+        <v>-18.11180000000013</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-6.6068082301495787E-3</v>
+        <v>-7.4612796105542074E-3</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-6.1832948820630666E-2</v>
+        <v>-7.1667554154007523E-2</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>43550</v>
       </c>
@@ -5273,23 +5273,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2715.6</v>
+        <v>2697.2000000000003</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-25.510000000000218</v>
+        <v>-27.529999999999745</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-28.158899999999903</v>
+        <v>-25.511800000000221</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-9.306442736119051E-3</v>
+        <v>-1.0103739679220668E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-2.6129627682180412E-2</v>
+        <v>-2.8588100642756156E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>43551</v>
       </c>
@@ -5310,36 +5310,36 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2721</v>
+        <v>2701.8</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-20.110000000000127</v>
+        <v>-22.929999999999836</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-22.758899999999812</v>
+        <v>-20.11180000000013</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.3364391777088868E-3</v>
+        <v>-8.4155013020170873E-3</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.2227398629514811E-2</v>
+        <v>-1.409017419833136E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>43552</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>43553</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>43556</v>
       </c>
@@ -5379,23 +5379,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4938.4000000000005</v>
+        <v>4938.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-67.5</v>
+        <v>-26.809999999999491</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-46.32300000000032</v>
+        <v>-67.504400000000714</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.3484076923242881E-2</v>
+        <v>-5.3991326427329468E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-1.2304220192459128</v>
+        <v>-0.65689447153250857</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>43557</v>
       </c>
@@ -5416,23 +5416,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4869</v>
+        <v>4862.6000000000004</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-136.90000000000055</v>
+        <v>-103.00999999999931</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-103.1230000000005</v>
+        <v>-136.90440000000035</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.7347705641362335E-2</v>
+        <v>-2.0744671895857058E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.25594647587428848</v>
+        <v>-0.19925803268389017</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5442,7 +5442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>43558</v>
       </c>
@@ -5455,30 +5455,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4748.4000000000005</v>
+        <v>4740.6000000000004</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-257.5</v>
+        <v>-225.00999999999931</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-207.32300000000032</v>
+        <v>-257.50440000000071</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.1439256410889506E-2</v>
+        <v>-4.5313645503221173E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.14442560453826669</v>
+        <v>-0.12821302797423045</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>43559</v>
       </c>
@@ -5491,60 +5491,60 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4677.2</v>
+        <v>4658</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-328.70000000000073</v>
+        <v>-307.60999999999967</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-272.52300000000014</v>
+        <v>-328.70440000000053</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.5662460513628812E-2</v>
+        <v>-6.1948048945584172E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10943743418938134</v>
+        <v>-0.10372035717953312</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>43563</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>43564</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>43565</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>43566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>43567</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>43570</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>43571</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>43572</v>
       </c>
@@ -5566,22 +5566,22 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>27.75</v>
+        <v>26.82</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.27750000000000002</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.29221639239261671</v>
+        <v>0.29086324171689454</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-1.4716392392616684E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-2.2663241716894544E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>43573</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>43574</v>
       </c>
@@ -5600,37 +5600,37 @@
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>43577</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>43578</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>43579</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>43580</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>43581</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>43584</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>43585</v>
       </c>
@@ -5652,15 +5652,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5679,383 +5679,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.6920000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.7229999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B5" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.718</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.1449801909141135E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.8378979626704998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B6" s="23">
-        <v>2.718</v>
+        <v>2.819</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-1.8378979626704998E-3</v>
+        <v>3.6485896403023535E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>43553</v>
+        <v>43556</v>
       </c>
       <c r="B7" s="23">
-        <v>2.819</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.6485896403023535E-2</v>
+        <v>1.9322575524857815E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.29221639239261671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.29086324171689454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B8" s="23">
-        <v>2.8740000000000001</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.9322575524857815E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-6.9613647085550311E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B9" s="23">
-        <v>2.8719999999999999</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-6.9613647085550311E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.0046853953289175E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.0046853953289175E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.3013882297513426E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>43559</v>
+        <v>43563</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.3013882297513426E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.3600818145553274E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>1.3600818145553274E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.0366605818033334E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.964</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.0366605818033334E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5.0735776007014045E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B14" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>5.0735776007014045E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.7699577099400975E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.7699577099400975E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.0625651863482564E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B16" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-2.0625651863482564E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.4497840939502249E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B18" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3.6636177530672926E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3.3422491005533368E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.2310919083313745E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B21" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.206709402867843E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B22" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.6889043028200429E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B23" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.6889043028201264E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B24" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B25" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B26" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B27" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B28" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B30" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B32" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6076,12 +6076,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC192E0-70B2-441C-AB36-EF74109712E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30172C6-A55F-4092-9998-1EFB09312681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -479,91 +479,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2704.4</v>
+        <v>2761.2000000000003</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>3591</v>
+        <v>3669.6</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2721.4</v>
+        <v>2779</v>
         <stp/>
         <stp>IH1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>4740.6000000000004</v>
+        <v>4821</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4938.8</v>
+        <v>5046.2</v>
         <stp/>
         <stp>IC1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>4862.6000000000004</v>
+        <v>4959.4000000000005</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>3638.6</v>
+        <v>3715.2000000000003</v>
         <stp/>
         <stp>IF1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3616</v>
+        <v>3692.6</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2697.2000000000003</v>
+        <v>2754</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2701.8</v>
+        <v>2761</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3596.6</v>
+        <v>3663.4</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4658</v>
+        <v>4736.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3645.15</v>
+        <v>3727.09</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -574,7 +574,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2724.73</v>
+        <v>2783.54</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -584,7 +584,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4965.6099999999997</v>
+        <v>5076.5600000000004</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -4945,29 +4945,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4995,10 +4995,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5011,23 +5011,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3638.6</v>
+        <v>3715.2000000000003</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-6.5500000000001819</v>
+        <v>-11.889999999999873</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-11.525500000000193</v>
+        <v>-6.5502999999998792</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7969080726246548E-3</v>
+        <v>-3.1901544268168173E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.21862381550266632</v>
+        <v>-0.58220318289406914</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5035,15 +5035,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3645.15</v>
+        <v>3727.09</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3616</v>
+        <v>3692.6</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-29.150000000000091</v>
+        <v>-34.490000000000236</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-35.925499999999829</v>
+        <v>-29.150299999999788</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-7.9969267659553284E-3</v>
+        <v>-9.2538625888068937E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-7.6812586041413014E-2</v>
+        <v>-9.1288103916608548E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>43542</v>
       </c>
@@ -5093,23 +5093,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3591</v>
+        <v>3669.6</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-54.150000000000091</v>
+        <v>-57.490000000000236</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-55.125500000000102</v>
+        <v>-54.150299999999788</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.4855354524064507E-2</v>
+        <v>-1.5424893019150676E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.2032592258011973E-2</v>
+        <v>-4.3985046499921847E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
         <v>43543</v>
       </c>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3596.6</v>
+        <v>3663.4</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-48.550000000000182</v>
+        <v>-63.690000000000055</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-54.925499999999829</v>
+        <v>-48.550299999999879</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3319066706248075E-2</v>
+        <v>-1.7088388178634603E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.2300272237525447E-2</v>
+        <v>-2.8743141406459123E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5154,14 +5154,14 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>43544</v>
       </c>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>43545</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="36">
         <v>43546</v>
       </c>
@@ -5201,30 +5201,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2721.4</v>
+        <v>2779</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-3.3299999999999272</v>
+        <v>-4.5399999999999636</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-0.31179999999994834</v>
+        <v>-3.3337000000001353</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.222137781758242E-3</v>
+        <v>-1.6310143339215751E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.14869343011391944</v>
+        <v>-0.29766011594068748</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-05-17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
         <v>43549</v>
       </c>
@@ -5237,30 +5237,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2704.4</v>
+        <v>2761.2000000000003</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-20.329999999999927</v>
+        <v>-22.339999999999691</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-18.11180000000013</v>
+        <v>-20.333700000000135</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.4612796105542074E-3</v>
+        <v>-8.0257401365215371E-3</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-7.1667554154007523E-2</v>
+        <v>-7.9172841887307055E-2</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="36">
         <v>43550</v>
       </c>
@@ -5273,23 +5273,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2697.2000000000003</v>
+        <v>2754</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-27.529999999999745</v>
+        <v>-29.539999999999964</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-25.511800000000221</v>
+        <v>-27.533700000000408</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0103739679220668E-2</v>
+        <v>-1.0612370798247501E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-2.8588100642756156E-2</v>
+        <v>-3.0261838604377637E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="36">
         <v>43551</v>
       </c>
@@ -5310,36 +5310,36 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2701.8</v>
+        <v>2761</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-22.929999999999836</v>
+        <v>-22.539999999999964</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-20.11180000000013</v>
+        <v>-22.933700000000044</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.4155013020170873E-3</v>
+        <v>-8.0975909882362411E-3</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.409017419833136E-2</v>
+        <v>-1.3620371938738376E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>43552</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="34">
         <v>43553</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="36">
         <v>43556</v>
       </c>
@@ -5379,23 +5379,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4938.8</v>
+        <v>5046.2</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-26.809999999999491</v>
+        <v>-30.360000000000582</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-67.504400000000714</v>
+        <v>-26.812399999999798</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.3991326427329468E-3</v>
+        <v>-5.9804335814347687E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.65689447153250857</v>
+        <v>-1.0914291286118454</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="36">
         <v>43557</v>
       </c>
@@ -5416,23 +5416,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4862.6000000000004</v>
+        <v>4959.4000000000005</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-103.00999999999931</v>
+        <v>-117.15999999999985</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-136.90440000000035</v>
+        <v>-103.01239999999962</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.0744671895857058E-2</v>
+        <v>-2.3078642898579815E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.19925803268389017</v>
+        <v>-0.22766769345896304</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5442,7 +5442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
         <v>43558</v>
       </c>
@@ -5455,30 +5455,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4740.6000000000004</v>
+        <v>4821</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-225.00999999999931</v>
+        <v>-255.5600000000004</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-257.50440000000071</v>
+        <v>-225.01239999999962</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.5313645503221173E-2</v>
+        <v>-5.0341225496424322E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.12821302797423045</v>
+        <v>-0.14355115082964748</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="36">
         <v>43559</v>
       </c>
@@ -5491,60 +5491,60 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4658</v>
+        <v>4736.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-307.60999999999967</v>
+        <v>-339.96000000000004</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-328.70440000000053</v>
+        <v>-307.61239999999998</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.1948048945584172E-2</v>
+        <v>-6.6966673265629939E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10372035717953312</v>
+        <v>-0.11263979604587523</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>43563</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>43564</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>43565</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>43566</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>43567</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>43570</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>43571</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>43572</v>
       </c>
@@ -5566,22 +5566,22 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>26.82</v>
+        <v>25.04</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.26819999999999999</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.29086324171689454</v>
+        <v>0.29729204897244804</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-2.2663241716894544E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-4.689204897244803E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>43573</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>43574</v>
       </c>
@@ -5600,37 +5600,37 @@
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>43577</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>43578</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>43579</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>43580</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>43581</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="26">
         <v>43584</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="26">
         <v>43585</v>
       </c>
@@ -5652,15 +5652,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5679,383 +5679,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.7229999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B5" s="23">
-        <v>2.718</v>
+        <v>2.819</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-1.8378979626704998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.6485896403023535E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43553</v>
+        <v>43556</v>
       </c>
       <c r="B6" s="23">
-        <v>2.819</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>3.6485896403023535E-2</v>
+        <v>1.9322575524857815E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B7" s="23">
-        <v>2.8740000000000001</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.9322575524857815E-2</v>
+        <v>-6.9613647085550311E-4</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.29086324171689454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29729204897244804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B8" s="23">
-        <v>2.8719999999999999</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-6.9613647085550311E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0046853953289175E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.0046853953289175E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3013882297513426E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43559</v>
+        <v>43563</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.3013882297513426E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3600818145553274E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.3600818145553274E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0366605818033334E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.964</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>2.0366605818033334E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0735776007014045E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B13" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>5.0735776007014045E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.7699577099400975E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.7699577099400975E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.0625651863482564E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B15" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-2.0625651863482564E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4497840939502249E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B17" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.6636177530672926E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.3422491005533368E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2310919083313745E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B20" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.206709402867843E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B21" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6889043028200429E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B22" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.6889043028201264E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B23" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B24" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B25" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B26" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B27" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B29" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B31" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6076,12 +6076,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30172C6-A55F-4092-9998-1EFB09312681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB6FE3-8DFB-47BA-8A1F-827AA732CDB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,91 +479,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2761.2000000000003</v>
+        <v>2769.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>3669.6</v>
+        <v>3675.6</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2779</v>
+        <v>2785.6</v>
         <stp/>
         <stp>IH1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>4821</v>
+        <v>4854</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>5046.2</v>
+        <v>5091.4000000000005</v>
         <stp/>
         <stp>IC1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>4959.4000000000005</v>
+        <v>4993</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>3715.2000000000003</v>
+        <v>3732.8</v>
         <stp/>
         <stp>IF1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3692.6</v>
+        <v>3703</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2754</v>
+        <v>2760.6</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2761</v>
+        <v>2766.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3663.4</v>
+        <v>3672.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4736.6000000000004</v>
+        <v>4761.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3727.09</v>
+        <v>3743.96</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -574,7 +574,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2783.54</v>
+        <v>2791.41</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -584,7 +584,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>5076.5600000000004</v>
+        <v>5108.3599999999997</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43599</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5011,23 +5011,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3715.2000000000003</v>
+        <v>3732.8</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-11.889999999999873</v>
+        <v>-11.159999999999854</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-6.5502999999998792</v>
+        <v>-11.892299999999977</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-3.1901544268168173E-3</v>
+        <v>-2.9807982903679096E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.58220318289406914</v>
+        <v>-1.087991375984287</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3727.09</v>
+        <v>3743.96</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3692.6</v>
+        <v>3703</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-34.490000000000236</v>
+        <v>-40.960000000000036</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-29.150299999999788</v>
+        <v>-34.492299999999886</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-9.2538625888068937E-3</v>
+        <v>-1.0940277596189183E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.1288103916608548E-2</v>
+        <v>-0.11092225896136255</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5093,23 +5093,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3669.6</v>
+        <v>3675.6</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-57.490000000000236</v>
+        <v>-68.360000000000127</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-54.150299999999788</v>
+        <v>-57.492299999999886</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.5424893019150676E-2</v>
+        <v>-1.8258725011608721E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.3985046499921847E-2</v>
+        <v>-5.2475863222340026E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3663.4</v>
+        <v>3672.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-63.690000000000055</v>
+        <v>-71.360000000000127</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-48.550299999999879</v>
+        <v>-63.692299999999705</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7088388178634603E-2</v>
+        <v>-1.906001487461086E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.8743141406459123E-2</v>
+        <v>-3.2207895505708163E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5201,23 +5201,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2779</v>
+        <v>2785.6</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-4.5399999999999636</v>
+        <v>-5.8099999999999454</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-3.3337000000001353</v>
+        <v>-4.5439000000001215</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.6310143339215751E-3</v>
+        <v>-2.0813819631092943E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.29766011594068748</v>
+        <v>-0.7597044165348924</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5237,23 +5237,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2761.2000000000003</v>
+        <v>2769.4</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-22.339999999999691</v>
+        <v>-22.009999999999764</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-20.333700000000135</v>
+        <v>-22.343900000000303</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.0257401365215371E-3</v>
+        <v>-7.884891051296989E-3</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-7.9172841887307055E-2</v>
+        <v>-7.9944034270094472E-2</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5273,23 +5273,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2754</v>
+        <v>2760.6</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-29.539999999999964</v>
+        <v>-30.809999999999945</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-27.533700000000408</v>
+        <v>-29.543900000000122</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0612370798247501E-2</v>
+        <v>-1.1037414506608924E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.0261838604377637E-2</v>
+        <v>-3.1721703109545328E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5310,23 +5310,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2761</v>
+        <v>2766.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-22.539999999999964</v>
+        <v>-25.209999999999582</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-22.933700000000044</v>
+        <v>-22.543900000000122</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.0975909882362411E-3</v>
+        <v>-9.0312632168648762E-3</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.3620371938738376E-2</v>
+        <v>-1.5261162380350369E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5379,23 +5379,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>5046.2</v>
+        <v>5091.4000000000005</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-30.360000000000582</v>
+        <v>-16.959999999999127</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-26.812399999999798</v>
+        <v>-30.355000000000473</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.9804335814347687E-3</v>
+        <v>-3.3200487013557321E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-1.0914291286118454</v>
+        <v>-1.2118177759948423</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5416,23 +5416,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4959.4000000000005</v>
+        <v>4993</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-117.15999999999985</v>
+        <v>-115.35999999999967</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-103.01239999999962</v>
+        <v>-117.15500000000065</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.3078642898579815E-2</v>
+        <v>-2.2582595412052826E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.22766769345896304</v>
+        <v>-0.22896242570553563</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5455,23 +5455,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4821</v>
+        <v>4854</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-255.5600000000004</v>
+        <v>-254.35999999999967</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-225.01239999999962</v>
+        <v>-255.55500000000029</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.0341225496424322E-2</v>
+        <v>-4.9792900216797553E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.14355115082964748</v>
+        <v>-0.14310557936323706</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5491,23 +5491,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4736.6000000000004</v>
+        <v>4761.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-339.96000000000004</v>
+        <v>-346.95999999999913</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-307.61239999999998</v>
+        <v>-339.95499999999993</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.6966673265629939E-2</v>
+        <v>-6.7920052914059031E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.11263979604587523</v>
+        <v>-0.1147723116371831</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5566,19 +5566,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>25.04</v>
+        <v>23.89</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.25040000000000001</v>
+        <v>0.2389</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.29729204897244804</v>
+        <v>0.27668143101149828</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-4.689204897244803E-2</v>
+        <v>-3.7781431011498279E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5681,35 +5681,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.718</v>
+        <v>2.819</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43553</v>
+        <v>43556</v>
       </c>
       <c r="B5" s="23">
-        <v>2.819</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>3.6485896403023535E-2</v>
+        <v>1.9322575524857815E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B6" s="23">
-        <v>2.8740000000000001</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.9322575524857815E-2</v>
+        <v>-6.9613647085550311E-4</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5717,342 +5717,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B7" s="23">
-        <v>2.8719999999999999</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-6.9613647085550311E-4</v>
+        <v>1.0046853953289175E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.29729204897244804</v>
+        <v>0.27668143101149828</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.0046853953289175E-2</v>
+        <v>1.3013882297513426E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43559</v>
+        <v>43563</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.3013882297513426E-2</v>
+        <v>1.3600818145553274E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.3600818145553274E-3</v>
+        <v>2.0366605818033334E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.964</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>2.0366605818033334E-3</v>
+        <v>5.0735776007014045E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B12" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>5.0735776007014045E-3</v>
+        <v>-1.7699577099400975E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.7699577099400975E-2</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B14" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B16" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B19" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B21" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B22" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B23" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B24" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B25" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B26" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B28" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B30" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB6FE3-8DFB-47BA-8A1F-827AA732CDB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83D17D6-D2AF-410A-9D09-211CF5CCD42E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,91 +479,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2769.4</v>
+        <v>2720</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>3675.6</v>
+        <v>3586.4</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2785.6</v>
+        <v>2743.8</v>
         <stp/>
         <stp>IH1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>4854</v>
+        <v>4690</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>5091.4000000000005</v>
+        <v>4984</v>
         <stp/>
         <stp>IC1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>4993</v>
+        <v>4824.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>3732.8</v>
+        <v>3666.4</v>
         <stp/>
         <stp>IF1905.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3703</v>
+        <v>3617.4</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2760.6</v>
+        <v>2709</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2766.2000000000003</v>
+        <v>2717</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3672.6</v>
+        <v>3583.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4761.4000000000005</v>
+        <v>4598.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3743.96</v>
+        <v>3648.76</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -574,7 +574,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2791.41</v>
+        <v>2735.21</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -584,7 +584,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>5108.3599999999997</v>
+        <v>4942.58</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43600</v>
+        <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5011,23 +5011,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3732.8</v>
+        <v>3666.4</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-11.159999999999854</v>
+        <v>17.639999999999873</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-11.892299999999977</v>
+        <v>-11.163499999999658</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.9807982903679096E-3</v>
-      </c>
-      <c r="H2" s="12">
+        <v>4.8345179318271779E-3</v>
+      </c>
+      <c r="H2" s="12" t="e">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-1.087991375984287</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3743.96</v>
+        <v>3648.76</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3703</v>
+        <v>3617.4</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-40.960000000000036</v>
+        <v>-31.360000000000127</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-34.492299999999886</v>
+        <v>-40.96349999999984</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.0940277596189183E-2</v>
+        <v>-8.5946985454706352E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.11092225896136255</v>
+        <v>-8.963042768847948E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5093,23 +5093,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3675.6</v>
+        <v>3586.4</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-68.360000000000127</v>
+        <v>-62.360000000000127</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-57.492299999999886</v>
+        <v>-68.363499999999931</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.8258725011608721E-2</v>
+        <v>-1.7090733459679455E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.2475863222340026E-2</v>
+        <v>-4.9508870736373022E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3672.6</v>
+        <v>3583.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-71.360000000000127</v>
+        <v>-65.160000000000309</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-63.692299999999705</v>
+        <v>-71.363499999999931</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.906001487461086E-2</v>
+        <v>-1.7858117258382239E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.2207895505708163E-2</v>
+        <v>-3.0317268833997754E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5201,23 +5201,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2785.6</v>
+        <v>2743.8</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-5.8099999999999454</v>
+        <v>8.5900000000001455</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-4.5439000000001215</v>
+        <v>-5.814600000000155</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-2.0813819631092943E-3</v>
-      </c>
-      <c r="H8" s="12">
+        <v>3.1405239315236162E-3</v>
+      </c>
+      <c r="H8" s="12" t="e">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.7597044165348924</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5237,23 +5237,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2769.4</v>
+        <v>2720</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-22.009999999999764</v>
+        <v>-15.210000000000036</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-22.343900000000303</v>
+        <v>-22.014599999999973</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.884891051296989E-3</v>
+        <v>-5.5608112920225274E-3</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-7.9944034270094472E-2</v>
+        <v>-5.7991317759663499E-2</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5273,23 +5273,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2760.6</v>
+        <v>2709</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-30.809999999999945</v>
+        <v>-26.210000000000036</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-29.543900000000122</v>
+        <v>-30.814600000000155</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1037414506608924E-2</v>
+        <v>-9.5824368155102094E-3</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.1721703109545328E-2</v>
+        <v>-2.7758646330644655E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5310,23 +5310,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2766.2000000000003</v>
+        <v>2717</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-25.209999999999582</v>
+        <v>-18.210000000000036</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-22.543900000000122</v>
+        <v>-25.214600000000246</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-9.0312632168648762E-3</v>
+        <v>-6.6576182529737129E-3</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.5261162380350369E-2</v>
+        <v>-1.130246819690886E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5379,23 +5379,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>5091.4000000000005</v>
+        <v>4984</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-16.959999999999127</v>
+        <v>41.420000000000073</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-30.355000000000473</v>
+        <v>-16.958800000000338</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.3200487013557321E-3</v>
-      </c>
-      <c r="H14" s="12">
+        <v>8.3802400171958946E-3</v>
+      </c>
+      <c r="H14" s="12" t="e">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-1.2118177759948423</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5416,23 +5416,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4993</v>
+        <v>4824.8</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-115.35999999999967</v>
+        <v>-117.77999999999975</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-117.15500000000065</v>
+        <v>-115.35879999999997</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.2582595412052826E-2</v>
+        <v>-2.3829663670336277E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.22896242570553563</v>
+        <v>-0.24850934970493543</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5455,23 +5455,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4854</v>
+        <v>4690</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-254.35999999999967</v>
+        <v>-252.57999999999993</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-255.55500000000029</v>
+        <v>-254.35879999999997</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.9792900216797553E-2</v>
+        <v>-5.110287357661359E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.14310557936323706</v>
+        <v>-0.14803610202749173</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5491,23 +5491,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4761.4000000000005</v>
+        <v>4598.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-346.95999999999913</v>
+        <v>-343.97999999999956</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-339.95499999999993</v>
+        <v>-346.95880000000034</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.7920052914059031E-2</v>
+        <v>-6.9595242904757007E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.1147723116371831</v>
+        <v>-0.11815006353598283</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5566,19 +5566,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>23.89</v>
+        <v>23.7</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.2389</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27668143101149828</v>
+        <v>0.2747711933401506</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-3.7781431011498279E-2</v>
+        <v>-3.7771193340150611E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5681,35 +5681,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43553</v>
+        <v>43556</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.819</v>
+        <v>2.8740000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B5" s="23">
-        <v>2.8740000000000001</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.9322575524857815E-2</v>
+        <v>-6.9613647085550311E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B6" s="23">
-        <v>2.8719999999999999</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-6.9613647085550311E-4</v>
+        <v>1.0046853953289175E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5717,342 +5717,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.0046853953289175E-2</v>
+        <v>1.3013882297513426E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27668143101149828</v>
+        <v>0.2747711933401506</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43559</v>
+        <v>43563</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.3013882297513426E-2</v>
+        <v>1.3600818145553274E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.3600818145553274E-3</v>
+        <v>2.0366605818033334E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.964</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>2.0366605818033334E-3</v>
+        <v>5.0735776007014045E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B11" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>5.0735776007014045E-3</v>
+        <v>-1.7699577099400975E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-1.7699577099400975E-2</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B13" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B15" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B18" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B21" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B22" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B23" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B24" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B25" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B27" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B29" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B34" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83D17D6-D2AF-410A-9D09-211CF5CCD42E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EA40F-A5F2-4B98-983E-3C60FC674181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>到期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,15 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IF1906.CFE</t>
-  </si>
-  <si>
-    <t>IH1906.CFE</t>
-  </si>
-  <si>
-    <t>IC1906.CFE</t>
-  </si>
-  <si>
     <t>IF01.CFE</t>
   </si>
   <si>
@@ -200,15 +191,6 @@
     <t>IC1909.CFE</t>
   </si>
   <si>
-    <t>IF1905.CFE</t>
-  </si>
-  <si>
-    <t>IH1905.CFE</t>
-  </si>
-  <si>
-    <t>IC1905.CFE</t>
-  </si>
-  <si>
     <t>IF1912.CFE</t>
   </si>
   <si>
@@ -216,6 +198,174 @@
   </si>
   <si>
     <t>IC1912.CFE</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF02.CFE</t>
+  </si>
+  <si>
+    <t>IF03.CFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1906.CFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IF190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CFE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IH190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CFE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IH190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CFE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IC190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CFE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IC190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CFE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,11 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,116 +629,113 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2720</v>
+        <v>2695.2000000000003</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
-        <tr r="D9" s="1"/>
+        <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3586.4</v>
+        <v>3557.8</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2743.8</v>
+        <v>2676.8</v>
         <stp/>
-        <stp>IH1905.CFE</stp>
+        <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
-        <tr r="D8" s="1"/>
+        <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4690</v>
+        <v>4693.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4984</v>
+        <v>4773.6000000000004</v>
         <stp/>
-        <stp>IC1905.CFE</stp>
+        <stp>IC1907.CFE</stp>
+        <stp>Rt_Price</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp>
+        <v>4825</v>
+        <stp/>
+        <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>4824.8</v>
+        <v>3587.8</v>
         <stp/>
-        <stp>IC1906.CFE</stp>
-        <stp>Rt_Price</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp>
-        <v>3666.4</v>
-        <stp/>
-        <stp>IF1905.CFE</stp>
+        <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3617.4</v>
+        <v>3563.8</v>
         <stp/>
-        <stp>IF1906.CFE</stp>
+        <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2709</v>
+        <v>2685.6</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2717</v>
+        <v>2692.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3583.6</v>
+        <v>3556.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4598.6000000000004</v>
+        <v>4598</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3648.76</v>
+        <v>3617.79</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="L2" s="1"/>
-        <tr r="E2" s="1"/>
         <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2735.21</v>
+        <v>2715.43</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
-        <tr r="E8" s="1"/>
         <tr r="E9" s="1"/>
         <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4942.58</v>
+        <v>4923.5600000000004</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
-        <tr r="E14" s="1"/>
         <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
         <tr r="E17" s="1"/>
@@ -4946,7 +5093,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4995,7 +5142,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43601</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5004,112 +5151,111 @@
       </c>
       <c r="B2" s="9" t="str">
         <f>[1]!s_info_code2(A2,"")</f>
-        <v>IF1905.CFE</v>
+        <v>IF1906.CFE</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3666.4</v>
-      </c>
-      <c r="E2" s="10">
-        <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>17.639999999999873</v>
+        <v>3587.8</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-11.163499999999658</v>
-      </c>
-      <c r="G2" s="11">
+        <v>-31.360900000000129</v>
+      </c>
+      <c r="G2" s="11" t="e">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>4.8345179318271779E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H2" s="12" t="e">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
-        <v>2019-05-17</v>
+        <v>2019-06-21</v>
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3648.76</v>
+        <v>3617.79</v>
       </c>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>[1]!s_info_code2(A3,"")</f>
-        <v>IF1906.CFE</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>IF1907.CFE</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3617.4</v>
+        <v>3563.8</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-31.360000000000127</v>
+        <v>-53.989999999999782</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-40.96349999999984</v>
+        <v>-3648.7609000000002</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-8.5946985454706352E-3</v>
+        <v>-1.4923465481324961E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-8.963042768847948E-2</v>
+        <v>-9.0784415011393504E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
-        <v>2019-06-21</v>
+        <v>2019-07-19</v>
       </c>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="36">
-        <v>43542</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="str">
         <f>[1]!s_info_code2(A4,"")</f>
-        <v>0</v>
+        <v>IF1912.CFE</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3586.4</v>
+        <v>3557.8</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.360000000000127</v>
+        <v>-59.989999999999782</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-68.363499999999931</v>
+        <v>-62.360900000000129</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7090733459679455E-2</v>
+        <v>-1.6581935436649098E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.9508870736373022E-2</v>
+        <v>-4.9206556377048134E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5118,35 +5264,35 @@
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="36">
-        <v>43543</v>
+      <c r="A5" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <f>[1]!s_info_code2(A5,"")</f>
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3583.6</v>
+        <v>3556.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-65.160000000000309</v>
+        <v>-61.190000000000055</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-71.363499999999931</v>
+        <v>-65.160900000000311</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7858117258382239E-2</v>
+        <v>-1.6913629427713999E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.0317268833997754E-2</v>
+        <v>-2.9120163873186836E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5155,16 +5301,12 @@
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
-        <v>43544</v>
-      </c>
+      <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
-        <v>43545</v>
-      </c>
+      <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -5189,107 +5331,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="36">
-        <v>43546</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="str">
         <f>[1]!s_info_code2(A8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>IF1906.CFE</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2743.8</v>
-      </c>
-      <c r="E8" s="10">
-        <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>8.5900000000001455</v>
+        <v>2695.2000000000003</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-5.814600000000155</v>
-      </c>
-      <c r="G8" s="11">
+        <v>-15.212399999999889</v>
+      </c>
+      <c r="G8" s="11" t="e">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>3.1405239315236162E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H8" s="12" t="e">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
-        <v>2019-05-17</v>
+        <v>2019-06-21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
-        <v>43549</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="str">
         <f>[1]!s_info_code2(A9,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>IF1907.CFE</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2720</v>
+        <v>2676.8</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-15.210000000000036</v>
+        <v>-38.629999999999654</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-22.014599999999973</v>
+        <v>-2735.2123999999999</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-5.5608112920225274E-3</v>
+        <v>-1.4226099977112164E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-5.7991317759663499E-2</v>
+        <v>-8.6542108194098993E-2</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
-        <v>2019-06-21</v>
+        <v>2019-07-19</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
-        <v>43550</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="str">
         <f>[1]!s_info_code2(A10,"")</f>
-        <v>0</v>
+        <v>IF1912.CFE</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2709</v>
+        <v>2685.6</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-26.210000000000036</v>
+        <v>-29.829999999999927</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-30.814600000000155</v>
+        <v>-26.212399999999889</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-9.5824368155102094E-3</v>
+        <v>-1.0985362731484821E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-2.7758646330644655E-2</v>
+        <v>-3.2598840625950892E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5298,35 +5439,35 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
-        <v>43551</v>
+      <c r="A11" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="9">
         <f>[1]!s_info_code2(A11,"")</f>
         <v>0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2717</v>
+        <v>2692.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-18.210000000000036</v>
+        <v>-23.229999999999563</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-25.214600000000246</v>
+        <v>-18.212399999999889</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-6.6576182529737129E-3</v>
+        <v>-8.5548097972641037E-3</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.130246819690886E-2</v>
+        <v>-1.4728799886799046E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5334,15 +5475,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="26">
-        <v>43552</v>
-      </c>
+      <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="34">
-        <v>43553</v>
-      </c>
+      <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -5367,111 +5504,110 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
-        <v>43556</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="str">
         <f>[1]!s_info_code2(A14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>IF1906.CFE</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4984</v>
-      </c>
-      <c r="E14" s="10">
-        <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>41.420000000000073</v>
+        <v>4825</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-16.958800000000338</v>
-      </c>
-      <c r="G14" s="11">
+        <v>-117.77919999999995</v>
+      </c>
+      <c r="G14" s="11" t="e">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>8.3802400171958946E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H14" s="12" t="e">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
-        <v>2019-05-17</v>
-      </c>
-      <c r="M14" s="37"/>
+        <v>2019-06-21</v>
+      </c>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
-        <v>43557</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
         <f>[1]!s_info_code2(A15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>IF1907.CFE</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4824.8</v>
+        <v>4773.6000000000004</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-117.77999999999975</v>
+        <v>-149.96000000000004</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-115.35879999999997</v>
+        <v>-4942.5792000000001</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.3829663670336277E-2</v>
+        <v>-3.045764314914564E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.24850934970493543</v>
+        <v>-0.18528399582396929</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
-        <v>2019-06-21</v>
+        <v>2019-07-19</v>
       </c>
       <c r="N15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="str">
+        <f>[1]!s_info_code2(A16,"")</f>
+        <v>IF1912.CFE</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
-        <v>43558</v>
-      </c>
-      <c r="B16" s="9">
-        <f>[1]!s_info_code2(A16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4690</v>
+        <v>4693.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-252.57999999999993</v>
+        <v>-229.76000000000022</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-254.35879999999997</v>
+        <v>-252.57920000000013</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.110287357661359E-2</v>
+        <v>-4.6665431381353074E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.14803610202749173</v>
+        <v>-0.13847871913978757</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5479,35 +5615,35 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
-        <v>43559</v>
+      <c r="A17" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="9">
         <f>[1]!s_info_code2(A17,"")</f>
         <v>0</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4598.6000000000004</v>
+        <v>4598</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-343.97999999999956</v>
+        <v>-325.5600000000004</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-346.95880000000034</v>
+        <v>-343.97919999999976</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.9595242904757007E-2</v>
+        <v>-6.6122901464629666E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.11815006353598283</v>
+        <v>-0.11384367469146145</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5515,39 +5651,25 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="26">
-        <v>43563</v>
-      </c>
+      <c r="A18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="26">
-        <v>43564</v>
-      </c>
+      <c r="A19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="26">
-        <v>43565</v>
-      </c>
+      <c r="A20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="26">
-        <v>43566</v>
-      </c>
+      <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="26">
-        <v>43567</v>
-      </c>
+      <c r="A22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="26">
-        <v>43570</v>
-      </c>
+      <c r="A23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="26">
-        <v>43571</v>
-      </c>
+      <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
       </c>
@@ -5559,32 +5681,28 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="26">
-        <v>43572</v>
-      </c>
+      <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>23.7</v>
+        <v>23.35</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.23699999999999999</v>
+        <v>0.23350000000000001</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.2747711933401506</v>
+        <v>0.27552589169660913</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-3.7771193340150611E-2</v>
+        <v>-4.2025891696609113E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="26">
-        <v>43573</v>
-      </c>
+      <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -5592,48 +5710,32 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="26">
-        <v>43574</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="26">
-        <v>43577</v>
-      </c>
+      <c r="A28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="26">
-        <v>43578</v>
-      </c>
+      <c r="A29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="26">
-        <v>43579</v>
-      </c>
+      <c r="A30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="26">
-        <v>43580</v>
-      </c>
+      <c r="A31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="26">
-        <v>43581</v>
-      </c>
+      <c r="A32" s="26"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="26">
-        <v>43584</v>
-      </c>
+      <c r="A33" s="26"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="26">
-        <v>43585</v>
-      </c>
+      <c r="A34" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5681,35 +5783,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.8740000000000001</v>
+        <v>2.8719999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B5" s="23">
-        <v>2.8719999999999999</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-6.9613647085550311E-4</v>
+        <v>1.0046853953289175E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.0046853953289175E-2</v>
+        <v>1.3013882297513426E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5717,342 +5819,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43559</v>
+        <v>43563</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.3013882297513426E-2</v>
+        <v>1.3600818145553274E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.2747711933401506</v>
+        <v>0.27552589169660913</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.3600818145553274E-3</v>
+        <v>2.0366605818033334E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.964</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.0366605818033334E-3</v>
+        <v>5.0735776007014045E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B10" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>5.0735776007014045E-3</v>
+        <v>-1.7699577099400975E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-1.7699577099400975E-2</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B12" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B14" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B17" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B21" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B22" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B23" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B24" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B26" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B28" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B33" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EA40F-A5F2-4B98-983E-3C60FC674181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363C1E8-8A0C-4F02-901A-E271934D756D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>到期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,23 +198,6 @@
   </si>
   <si>
     <t>IC1912.CFE</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IF02.CFE</t>
@@ -491,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,9 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -629,116 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2695.2000000000003</v>
+        <v>2703.8</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3557.8</v>
+        <v>3591.2000000000003</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2676.8</v>
+        <v>2681</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4693.8</v>
+        <v>4754</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4773.6000000000004</v>
+        <v>4824.4000000000005</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4825</v>
+        <v>4889.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3587.8</v>
+        <v>3622</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3563.8</v>
+        <v>3595.4</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2685.6</v>
+        <v>2690</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2692.2000000000003</v>
+        <v>2694.6</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3556.6</v>
+        <v>3590</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4598</v>
+        <v>4662.8</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3617.79</v>
+        <v>3649.38</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="L2" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
         <tr r="E5" s="1"/>
+        <tr r="E3" s="1"/>
+        <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2715.43</v>
+        <v>2725.73</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E9" s="1"/>
         <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
+        <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>4923.5600000000004</v>
+        <v>4976.3900000000003</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
         <tr r="E17" s="1"/>
+        <tr r="E14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5093,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5142,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43602</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5154,26 +5137,27 @@
         <v>IF1906.CFE</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3587.8</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>29</v>
+        <v>3622</v>
+      </c>
+      <c r="E2" s="10">
+        <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
+        <v>-27.380000000000109</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-31.360900000000129</v>
-      </c>
-      <c r="G2" s="11" t="e">
+        <v>-41.576199999999972</v>
+      </c>
+      <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="12" t="e">
+        <v>-7.5026451071300198E-3</v>
+      </c>
+      <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>#VALUE!</v>
+        <v>-9.1282182136748574E-2</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5181,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3617.79</v>
+        <v>3649.38</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5198,27 +5182,27 @@
         <v>IF1907.CFE</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3563.8</v>
+        <v>3595.4</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-53.989999999999782</v>
+        <v>-53.980000000000018</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-3648.7609000000002</v>
+        <v>-65.176199999999881</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.4923465481324961E-2</v>
+        <v>-1.4791555255035681E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.0784415011393504E-2</v>
+        <v>-9.3084787380827996E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5228,34 +5212,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="str">
         <f>[1]!s_info_code2(A4,"")</f>
-        <v>IF1912.CFE</v>
+        <v>IF1909.CFE</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3557.8</v>
+        <v>3591.2000000000003</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-59.989999999999782</v>
+        <v>-58.179999999999836</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.360900000000129</v>
+        <v>-71.176199999999881</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.6581935436649098E-2</v>
+        <v>-1.594243580470495E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.9206556377048134E-2</v>
+        <v>-4.8090818749729806E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5265,34 +5249,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="str">
         <f>[1]!s_info_code2(A5,"")</f>
-        <v>0</v>
+        <v>IF1912.CFE</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3556.6</v>
+        <v>3590</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-61.190000000000055</v>
+        <v>-59.380000000000109</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-65.160900000000311</v>
+        <v>-69.376199999999699</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.6913629427713999E-2</v>
+        <v>-1.627125881889626E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.9120163873186836E-2</v>
+        <v>-2.8280997470938738E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5339,26 +5323,27 @@
         <v>IF1906.CFE</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2695.2000000000003</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>29</v>
+        <v>2703.8</v>
+      </c>
+      <c r="E8" s="10">
+        <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
+        <v>-21.929999999999836</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-15.212399999999889</v>
-      </c>
-      <c r="G8" s="11" t="e">
+        <v>-26.785199999999804</v>
+      </c>
+      <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" s="12" t="e">
+        <v>-8.0455384077603737E-3</v>
+      </c>
+      <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>#VALUE!</v>
+        <v>-9.788738396108454E-2</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5374,27 +5359,27 @@
         <v>IF1907.CFE</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2676.8</v>
+        <v>2681</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-38.629999999999654</v>
+        <v>-44.730000000000018</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-2735.2123999999999</v>
+        <v>-44.985199999999622</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.4226099977112164E-2</v>
+        <v>-1.6410256861793177E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-8.6542108194098993E-2</v>
+        <v>-0.10327144404404326</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5403,34 +5388,34 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>[1]!s_info_code2(A10,"")</f>
-        <v>IF1912.CFE</v>
+        <v>IF1909.CFE</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2685.6</v>
+        <v>2690</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-29.829999999999927</v>
+        <v>-35.730000000000018</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-26.212399999999889</v>
+        <v>-37.585199999999986</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0985362731484821E-2</v>
+        <v>-1.3108394314148675E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.2598840625950892E-2</v>
+        <v>-3.9541850617060052E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5440,34 +5425,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="9">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="str">
         <f>[1]!s_info_code2(A11,"")</f>
-        <v>0</v>
+        <v>IF1912.CFE</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2692.2000000000003</v>
+        <v>2694.6</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-23.229999999999563</v>
+        <v>-31.130000000000109</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-18.212399999999889</v>
+        <v>-32.985199999999622</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.5548097972641037E-3</v>
+        <v>-1.1420775678685963E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.4728799886799046E-2</v>
+        <v>-1.9850395822477981E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5512,26 +5497,27 @@
         <v>IF1906.CFE</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4825</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>29</v>
+        <v>4889.8</v>
+      </c>
+      <c r="E14" s="10">
+        <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
+        <v>-86.590000000000146</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-117.77919999999995</v>
-      </c>
-      <c r="G14" s="11" t="e">
+        <v>-106.27250000000004</v>
+      </c>
+      <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="12" t="e">
+        <v>-1.7400153432418922E-2</v>
+      </c>
+      <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>#VALUE!</v>
+        <v>-0.21170186676109687</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5548,27 +5534,27 @@
         <v>IF1907.CFE</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4773.6000000000004</v>
+        <v>4824.4000000000005</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-149.96000000000004</v>
+        <v>-151.98999999999978</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-4942.5792000000001</v>
+        <v>-155.47250000000076</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.045764314914564E-2</v>
+        <v>-3.0542202566039307E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.18528399582396929</v>
+        <v>-0.19220524028628186</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5580,34 +5566,34 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9" t="str">
         <f>[1]!s_info_code2(A16,"")</f>
-        <v>IF1912.CFE</v>
+        <v>IF1909.CFE</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4693.8</v>
+        <v>4754</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-229.76000000000022</v>
+        <v>-222.39000000000033</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-252.57920000000013</v>
+        <v>-231.07250000000022</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.6665431381353074E-2</v>
+        <v>-4.4688995517214954E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.13847871913978757</v>
+        <v>-0.13480564763457403</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5616,34 +5602,34 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="9">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="str">
         <f>[1]!s_info_code2(A17,"")</f>
-        <v>0</v>
+        <v>IF1912.CFE</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4598</v>
+        <v>4662.8</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-325.5600000000004</v>
+        <v>-313.59000000000015</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-343.97919999999976</v>
+        <v>-324.8725000000004</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.6122901464629666E-2</v>
+        <v>-6.30155227494196E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.11384367469146145</v>
+        <v>-0.10952698001684835</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5686,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>23.35</v>
+        <v>21.66</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.23350000000000001</v>
+        <v>0.21660000000000001</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27552589169660913</v>
+        <v>0.27112936500709739</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-4.2025891696609113E-2</v>
+        <v>-5.4529365007097375E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5783,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43557</v>
+        <v>43559</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.8719999999999999</v>
+        <v>2.9390000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43558</v>
+        <v>43563</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9009999999999998</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.0046853953289175E-2</v>
+        <v>1.3600818145553274E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43559</v>
+        <v>43564</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9390000000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.3013882297513426E-2</v>
+        <v>2.0366605818033334E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5819,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.964</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.3600818145553274E-3</v>
+        <v>5.0735776007014045E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27552589169660913</v>
+        <v>0.27112936500709739</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43564</v>
+        <v>43566</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.0366605818033334E-3</v>
+        <v>-1.7699577099400975E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43565</v>
+        <v>43567</v>
       </c>
       <c r="B9" s="23">
-        <v>2.964</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5.0735776007014045E-3</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43566</v>
+        <v>43570</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-1.7699577099400975E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43567</v>
+        <v>43571</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-2.0625651863482564E-3</v>
+        <v>3.4497840939502249E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43570</v>
+        <v>43572</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9060000000000001</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>0</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43571</v>
+        <v>43573</v>
       </c>
       <c r="B13" s="23">
-        <v>3.008</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43572</v>
+        <v>43574</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9969999999999999</v>
+        <v>3.024</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43573</v>
+        <v>43577</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9870000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43574</v>
+        <v>43578</v>
       </c>
       <c r="B16" s="23">
-        <v>3.024</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43577</v>
+        <v>43579</v>
       </c>
       <c r="B17" s="23">
         <v>2.9580000000000002</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43579</v>
+        <v>43581</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43580</v>
+        <v>43584</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43581</v>
+        <v>43585</v>
       </c>
       <c r="B21" s="23">
-        <v>2.88</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B22" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="B23" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43591</v>
+        <v>43593</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="B25" s="23">
-        <v>2.79</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="B27" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43599</v>
+        <v>43601</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.774</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43601</v>
+        <v>43605</v>
       </c>
       <c r="B32" s="23">
-        <v>2.774</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43602</v>
+        <v>43606</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.722</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="B34" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-8.8528796557549513E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363C1E8-8A0C-4F02-901A-E271934D756D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB17375-8A4A-49A3-9744-00CE5801C2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2703.8</v>
+        <v>2679</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3591.2000000000003</v>
+        <v>3531.8</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2681</v>
+        <v>2657.8</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4754</v>
+        <v>4636.6000000000004</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4824.4000000000005</v>
+        <v>4710.4000000000005</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4889.8</v>
+        <v>4772.6000000000004</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3622</v>
+        <v>3569.4</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3595.4</v>
+        <v>3540</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2690</v>
+        <v>2665.4</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2694.6</v>
+        <v>2668</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3590</v>
+        <v>3531.8</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4662.8</v>
+        <v>4546.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3649.38</v>
+        <v>3593.91</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="L2" s="1"/>
+        <tr r="E2" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
         <tr r="E5" s="1"/>
-        <tr r="E3" s="1"/>
-        <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2725.73</v>
+        <v>2702.03</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E8" s="1"/>
         <tr r="E9" s="1"/>
         <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
-        <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>4976.3900000000003</v>
+        <v>4841.76</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E14" s="1"/>
         <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
         <tr r="E17" s="1"/>
-        <tr r="E14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5075,29 +5075,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3622</v>
+        <v>3569.4</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-27.380000000000109</v>
+        <v>-24.509999999999764</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-41.576199999999972</v>
+        <v>-26.364599999999882</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-7.5026451071300198E-3</v>
+        <v>-6.8198628798535671E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-9.1282182136748574E-2</v>
+        <v>-8.8901783969519713E-2</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43607</v>
+        <v>43609</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3649.38</v>
+        <v>3593.91</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3595.4</v>
+        <v>3540</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-53.980000000000018</v>
+        <v>-53.909999999999854</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-65.176199999999881</v>
+        <v>-57.164599999999609</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.4791555255035681E-2</v>
+        <v>-1.50003593575238E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.3084787380827996E-2</v>
+        <v>-9.7770199383860473E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3591.2000000000003</v>
+        <v>3531.8</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-58.179999999999836</v>
+        <v>-62.109999999999673</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-71.176199999999881</v>
+        <v>-63.5645999999997</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.594243580470495E-2</v>
+        <v>-1.7281994429527006E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-4.8090818749729806E-2</v>
+        <v>-5.3007798040145861E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3590</v>
+        <v>3531.8</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-59.380000000000109</v>
+        <v>-62.109999999999673</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-69.376199999999699</v>
+        <v>-60.364599999999882</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.627125881889626E-2</v>
+        <v>-1.7281994429527006E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.8280997470938738E-2</v>
+        <v>-3.0326576763352677E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2703.8</v>
+        <v>2679</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-21.929999999999836</v>
+        <v>-23.0300000000002</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-26.785199999999804</v>
+        <v>-19.533599999999751</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.0455384077603737E-3</v>
+        <v>-8.5232365708507087E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-9.788738396108454E-2</v>
+        <v>-0.11110647672716102</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2681</v>
+        <v>2657.8</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-44.730000000000018</v>
+        <v>-44.230000000000018</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-44.985199999999622</v>
+        <v>-41.933599999999842</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.6410256861793177E-2</v>
+        <v>-1.6369203366423089E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.10327144404404326</v>
+        <v>-0.10669212908472192</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2690</v>
+        <v>2665.4</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-35.730000000000018</v>
+        <v>-36.630000000000109</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-37.585199999999986</v>
+        <v>-36.733600000000024</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3108394314148675E-2</v>
+        <v>-1.3556498288765075E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.9541850617060052E-2</v>
+        <v>-4.1580856095792033E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2694.6</v>
+        <v>2668</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-31.130000000000109</v>
+        <v>-34.0300000000002</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.985199999999622</v>
+        <v>-32.333599999999933</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1420775678685963E-2</v>
+        <v>-1.2594257077987355E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.9850395822477981E-2</v>
+        <v>-2.2100499199352811E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4889.8</v>
+        <v>4772.6000000000004</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-86.590000000000146</v>
+        <v>-69.159999999999854</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-106.27250000000004</v>
+        <v>-84.72019999999975</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.7400153432418922E-2</v>
+        <v>-1.428406995947522E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.21170186676109687</v>
+        <v>-0.18620305482887339</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4824.4000000000005</v>
+        <v>4710.4000000000005</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-151.98999999999978</v>
+        <v>-131.35999999999967</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-155.47250000000076</v>
+        <v>-149.92019999999957</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.0542202566039307E-2</v>
+        <v>-2.7130645313427765E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.19220524028628186</v>
+        <v>-0.17683367034644881</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4754</v>
+        <v>4636.6000000000004</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-222.39000000000033</v>
+        <v>-205.15999999999985</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-231.07250000000022</v>
+        <v>-226.72019999999975</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.4688995517214954E-2</v>
+        <v>-4.2373045009918162E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.13480564763457403</v>
+        <v>-0.12996774309764814</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4662.8</v>
+        <v>4546.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-313.59000000000015</v>
+        <v>-295.15999999999985</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-324.8725000000004</v>
+        <v>-313.92019999999957</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.30155227494196E-2</v>
+        <v>-6.0961337322711293E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10952698001684835</v>
+        <v>-0.10697542366725779</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>21.66</v>
+        <v>22.16</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.21660000000000001</v>
+        <v>0.22159999999999999</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27112936500709739</v>
+        <v>0.27284942612845892</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.4529365007097375E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-5.1249426128458925E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>43559</v>
+        <v>43564</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9390000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.9489999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9430000000000001</v>
+        <v>2.964</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.3600818145553274E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5.0735776007014045E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>43564</v>
+        <v>43566</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9489999999999998</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>2.0366605818033334E-3</v>
+        <v>-1.7699577099400975E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>43565</v>
+        <v>43567</v>
       </c>
       <c r="B7" s="23">
-        <v>2.964</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5.0735776007014045E-3</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27112936500709739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.27284942612845892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>43566</v>
+        <v>43570</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.7699577099400975E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>43567</v>
+        <v>43571</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-2.0625651863482564E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3.4497840939502249E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>43570</v>
+        <v>43572</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9060000000000001</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-3.6636177530672926E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>43571</v>
+        <v>43573</v>
       </c>
       <c r="B11" s="23">
-        <v>3.008</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>3.4497840939502249E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-3.3422491005533368E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>43572</v>
+        <v>43574</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9969999999999999</v>
+        <v>3.024</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-3.6636177530672926E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.2310919083313745E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>43573</v>
+        <v>43577</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9870000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-3.3422491005533368E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.206709402867843E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>43574</v>
+        <v>43578</v>
       </c>
       <c r="B14" s="23">
-        <v>3.024</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.2310919083313745E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.6889043028200429E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>43577</v>
+        <v>43579</v>
       </c>
       <c r="B15" s="23">
         <v>2.9580000000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.6889043028201264E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>43579</v>
+        <v>43581</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>43580</v>
+        <v>43584</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43581</v>
+        <v>43585</v>
       </c>
       <c r="B19" s="23">
-        <v>2.88</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B20" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="B21" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>43591</v>
+        <v>43593</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="B23" s="23">
-        <v>2.79</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="B25" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>43599</v>
+        <v>43601</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.774</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
-        <v>43601</v>
+        <v>43605</v>
       </c>
       <c r="B30" s="23">
-        <v>2.774</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
-        <v>43602</v>
+        <v>43606</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.722</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="B32" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
-        <v>43606</v>
+        <v>43608</v>
       </c>
       <c r="B33" s="23">
-        <v>2.722</v>
+        <v>2.677</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
-        <v>43607</v>
+        <v>43609</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB17375-8A4A-49A3-9744-00CE5801C2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56466CBF-7A0C-4EF5-B868-C93DDC69A237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,91 +609,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2679</v>
+        <v>2702.6</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3531.8</v>
+        <v>3569</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2657.8</v>
+        <v>2680.2000000000003</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4636.6000000000004</v>
+        <v>4774.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4710.4000000000005</v>
+        <v>4841.8</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4772.6000000000004</v>
+        <v>4903</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3569.4</v>
+        <v>3607.2000000000003</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3540</v>
+        <v>3579</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2665.4</v>
+        <v>2687</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2668</v>
+        <v>2689.8</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3531.8</v>
+        <v>3572.4</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4546.6000000000004</v>
+        <v>4678.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3593.91</v>
+        <v>3637.2000000000003</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -704,7 +704,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2702.03</v>
+        <v>2722.33</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -714,7 +714,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4841.76</v>
+        <v>4962.95</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5075,29 +5075,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3569.4</v>
+        <v>3607.2000000000003</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-24.509999999999764</v>
+        <v>-30</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-26.364599999999882</v>
+        <v>-24.513899999999921</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-6.8198628798535671E-3</v>
+        <v>-8.2481095126794197E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-8.8901783969519713E-2</v>
+        <v>-0.12042239888511952</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3593.91</v>
+        <v>3637.2000000000003</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3540</v>
+        <v>3579</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-53.909999999999854</v>
+        <v>-58.200000000000273</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-57.164599999999609</v>
+        <v>-53.913900000000012</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.50003593575238E-2</v>
+        <v>-1.6001332454598151E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.7770199383860473E-2</v>
+        <v>-0.11019785558355331</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3531.8</v>
+        <v>3569</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.109999999999673</v>
+        <v>-68.200000000000273</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-63.5645999999997</v>
+        <v>-62.11389999999983</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7281994429527006E-2</v>
+        <v>-1.8750702292157959E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.3007798040145861E-2</v>
+        <v>-5.9000054626186682E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3531.8</v>
+        <v>3572.4</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.109999999999673</v>
+        <v>-64.800000000000182</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-60.364599999999882</v>
+        <v>-62.11389999999983</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7281994429527006E-2</v>
+        <v>-1.7815916547387598E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.0326576763352677E-2</v>
+        <v>-3.1721022145348651E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2679</v>
+        <v>2702.6</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-23.0300000000002</v>
+        <v>-19.730000000000018</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-19.533599999999751</v>
+        <v>-23.025200000000041</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-8.5232365708507087E-3</v>
+        <v>-7.2474561814501555E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.11110647672716102</v>
+        <v>-0.10581286024917227</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2657.8</v>
+        <v>2680.2000000000003</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-44.230000000000018</v>
+        <v>-42.129999999999654</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-41.933599999999842</v>
+        <v>-44.225199999999859</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.6369203366423089E-2</v>
+        <v>-1.5475688237429917E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.10669212908472192</v>
+        <v>-0.10657785295588527</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2665.4</v>
+        <v>2687</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-36.630000000000109</v>
+        <v>-35.329999999999927</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-36.733600000000024</v>
+        <v>-36.62519999999995</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3556498288765075E-2</v>
+        <v>-1.2977832077578978E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.1580856095792033E-2</v>
+        <v>-4.0835419899278684E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2668</v>
+        <v>2689.8</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-34.0300000000002</v>
+        <v>-32.529999999999745</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.333599999999933</v>
+        <v>-34.025200000000041</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2594257077987355E-2</v>
+        <v>-1.1949303070581424E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.2100499199352811E-2</v>
+        <v>-2.1275588393962049E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4772.6000000000004</v>
+        <v>4903</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-69.159999999999854</v>
+        <v>-59.949999999999818</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-84.72019999999975</v>
+        <v>-69.15729999999985</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.428406995947522E-2</v>
+        <v>-1.2079516464713369E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.18620305482887339</v>
+        <v>-0.17636094038481517</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4710.4000000000005</v>
+        <v>4841.8</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-131.35999999999967</v>
+        <v>-121.14999999999964</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-149.92019999999957</v>
+        <v>-131.35730000000058</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.7130645313427765E-2</v>
+        <v>-2.4410899411176391E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.17683367034644881</v>
+        <v>-0.16811279783168648</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4636.6000000000004</v>
+        <v>4774.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-205.15999999999985</v>
+        <v>-188.14999999999964</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-226.72019999999975</v>
+        <v>-205.15729999999985</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.2373045009918162E-2</v>
+        <v>-3.7910942832957845E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.12996774309764814</v>
+        <v>-0.11928874253473805</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4546.6000000000004</v>
+        <v>4678.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-295.15999999999985</v>
+        <v>-284.34999999999945</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-313.92019999999957</v>
+        <v>-295.15729999999985</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.0961337322711293E-2</v>
+        <v>-5.7294587268411176E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10697542366725779</v>
+        <v>-0.10201231391692722</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>22.16</v>
+        <v>23.35</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.22159999999999999</v>
+        <v>0.23350000000000001</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27284942612845892</v>
+        <v>0.27395249314319664</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.1249426128458925E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-4.0452493143196627E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9489999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B5" s="23">
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>5.0735776007014045E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.7699577099400975E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-1.7699577099400975E-2</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B7" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27284942612845892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.27395249314319664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.4497840939502249E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B9" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.4497840939502249E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.6636177530672926E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-3.6636177530672926E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.3422491005533368E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-3.3422491005533368E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2310919083313745E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B12" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>1.2310919083313745E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.206709402867843E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-2.206709402867843E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6889043028200429E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.6889043028201264E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B17" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B19" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B21" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B23" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B28" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B30" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B31" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B33" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B34" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56466CBF-7A0C-4EF5-B868-C93DDC69A237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05304CAF-D53A-4EE6-8F01-9C0849480C0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,91 +609,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2702.6</v>
+        <v>2715.6</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3569</v>
+        <v>3588.6</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2680.2000000000003</v>
+        <v>2694.2000000000003</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4774.8</v>
+        <v>4749.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4841.8</v>
+        <v>4827.6000000000004</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4903</v>
+        <v>4888.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3607.2000000000003</v>
+        <v>3626</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3579</v>
+        <v>3601</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2687</v>
+        <v>2700.8</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2689.8</v>
+        <v>2701.6</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3572.4</v>
+        <v>3587</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4678.6000000000004</v>
+        <v>4666.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3637.2000000000003</v>
+        <v>3672.26</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -704,7 +704,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2722.33</v>
+        <v>2748.8</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -714,7 +714,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4962.95</v>
+        <v>4955.49</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43609</v>
+        <v>43612</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3607.2000000000003</v>
+        <v>3626</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-30</v>
+        <v>-46.260000000000218</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-24.513899999999921</v>
+        <v>-29.997100000000046</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-8.2481095126794197E-3</v>
+        <v>-1.2597145545638774E-2</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.12042239888511952</v>
+        <v>-0.19158158850658968</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3637.2000000000003</v>
+        <v>3672.26</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3579</v>
+        <v>3601</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-58.200000000000273</v>
+        <v>-71.260000000000218</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-53.913900000000012</v>
+        <v>-58.197099999999864</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.6001332454598151E-2</v>
+        <v>-1.9404941452274484E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.11019785558355331</v>
+        <v>-0.13620776211692667</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3569</v>
+        <v>3588.6</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-68.200000000000273</v>
+        <v>-83.660000000000309</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.11389999999983</v>
+        <v>-68.197099999999864</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.8750702292157959E-2</v>
+        <v>-2.2781608221965819E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.9000054626186682E-2</v>
+        <v>-7.2306843487108904E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3572.4</v>
+        <v>3587</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-64.800000000000182</v>
+        <v>-85.260000000000218</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.11389999999983</v>
+        <v>-64.797099999999773</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7815916547387598E-2</v>
+        <v>-2.3217307159990479E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.1721022145348651E-2</v>
+        <v>-4.1540770163708454E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2702.6</v>
+        <v>2715.6</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-19.730000000000018</v>
+        <v>-33.200000000000273</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-23.025200000000041</v>
+        <v>-19.734500000000025</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.2474561814501555E-3</v>
+        <v>-1.2078003383805542E-2</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.10581286024917227</v>
+        <v>-0.18368630146204259</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2680.2000000000003</v>
+        <v>2694.2000000000003</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-42.129999999999654</v>
+        <v>-54.599999999999909</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-44.225199999999859</v>
+        <v>-42.134500000000116</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5475688237429917E-2</v>
+        <v>-1.9863222432402895E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.10657785295588527</v>
+        <v>-0.13942454207359722</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2687</v>
+        <v>2700.8</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-35.329999999999927</v>
+        <v>-48</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-36.62519999999995</v>
+        <v>-35.334499999999935</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2977832077578978E-2</v>
+        <v>-1.7462173566947629E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.0835419899278684E-2</v>
+        <v>-5.5423420451616384E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2689.8</v>
+        <v>2701.6</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-32.529999999999745</v>
+        <v>-47.200000000000273</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-34.025200000000041</v>
+        <v>-32.534499999999753</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1949303070581424E-2</v>
+        <v>-1.7171137340831935E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.1275588393962049E-2</v>
+        <v>-3.072286828139047E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4903</v>
+        <v>4888.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-59.949999999999818</v>
+        <v>-66.6899999999996</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-69.15729999999985</v>
+        <v>-59.947000000000116</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.2079516464713369E-2</v>
+        <v>-1.3457813568418192E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.17636094038481517</v>
+        <v>-0.20467091468636001</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4841.8</v>
+        <v>4827.6000000000004</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-121.14999999999964</v>
+        <v>-127.88999999999942</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-131.35730000000058</v>
+        <v>-121.14699999999993</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.4410899411176391E-2</v>
+        <v>-2.5807763941595514E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.16811279783168648</v>
+        <v>-0.18115065074389161</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4774.8</v>
+        <v>4749.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-188.14999999999964</v>
+        <v>-205.6899999999996</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-205.15729999999985</v>
+        <v>-188.14699999999993</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.7910942832957845E-2</v>
+        <v>-4.1507537455209909E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.11928874253473805</v>
+        <v>-0.1317413145317532</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4678.6000000000004</v>
+        <v>4666.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-284.34999999999945</v>
+        <v>-289.08999999999924</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-295.15729999999985</v>
+        <v>-284.34699999999975</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.7294587268411176E-2</v>
+        <v>-5.8337371787284868E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10201231391692722</v>
+        <v>-0.10437814069783811</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>23.35</v>
+        <v>22.15</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.23350000000000001</v>
+        <v>0.22149999999999997</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27395249314319664</v>
+        <v>0.27165286948591016</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-4.0452493143196627E-2</v>
+        <v>-5.015286948591019E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.964</v>
+        <v>2.9119999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-1.7699577099400975E-2</v>
+        <v>-2.0625651863482564E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B6" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27395249314319664</v>
+        <v>0.27165286948591016</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B8" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B11" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B16" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B18" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B20" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B22" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B27" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B29" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B30" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B32" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B33" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B34" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>8.5106896679086105E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05304CAF-D53A-4EE6-8F01-9C0849480C0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E2CD1-59CC-4510-BE45-1125FBECD34B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,91 +609,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2715.6</v>
+        <v>2729.6</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3588.6</v>
+        <v>3590.8</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2694.2000000000003</v>
+        <v>2707.6</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4749.8</v>
+        <v>4727.6000000000004</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4827.6000000000004</v>
+        <v>4806.8</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4888.8</v>
+        <v>4866</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3626</v>
+        <v>3627.4</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3601</v>
+        <v>3600</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2700.8</v>
+        <v>2713.6</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2701.6</v>
+        <v>2718</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3587</v>
+        <v>3584</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4666.4000000000005</v>
+        <v>4643.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3672.26</v>
+        <v>3663.91</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -704,7 +704,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2748.8</v>
+        <v>2755.81</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -714,7 +714,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4955.49</v>
+        <v>4956.8599999999997</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43612</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3626</v>
+        <v>3627.4</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-46.260000000000218</v>
+        <v>-36.509999999999764</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-29.997100000000046</v>
+        <v>-46.260499999999865</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.2597145545638774E-2</v>
+        <v>-9.9647671380483967E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.19158158850658968</v>
+        <v>-0.15813652197337674</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3672.26</v>
+        <v>3663.91</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-71.260000000000218</v>
+        <v>-63.909999999999854</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-58.197099999999864</v>
+        <v>-71.260499999999865</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.9404941452274484E-2</v>
+        <v>-1.7443118811083968E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.13620776211692667</v>
+        <v>-0.12483800717736566</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3588.6</v>
+        <v>3590.8</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-83.660000000000309</v>
+        <v>-73.109999999999673</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-68.197099999999864</v>
+        <v>-83.660499999999956</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.2781608221965819E-2</v>
+        <v>-1.995409820494987E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-7.2306843487108904E-2</v>
+        <v>-6.3888121445672838E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3587</v>
+        <v>3584</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-85.260000000000218</v>
+        <v>-79.909999999999854</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-64.797099999999773</v>
+        <v>-85.260499999999865</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.3217307159990479E-2</v>
+        <v>-2.1810039496068231E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.1540770163708454E-2</v>
+        <v>-3.9215095645639922E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2715.6</v>
+        <v>2729.6</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-33.200000000000273</v>
+        <v>-26.210000000000036</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-19.734500000000025</v>
+        <v>-33.198699999999917</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2078003383805542E-2</v>
+        <v>-9.5108218892309797E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.18368630146204259</v>
+        <v>-0.1509326082421438</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2694.2000000000003</v>
+        <v>2707.6</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-54.599999999999909</v>
+        <v>-48.210000000000036</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-42.134500000000116</v>
+        <v>-54.598700000000008</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.9863222432402895E-2</v>
+        <v>-1.7493961208692302E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.13942454207359722</v>
+        <v>-0.1252018792386802</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2700.8</v>
+        <v>2713.6</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-48</v>
+        <v>-42.210000000000036</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-35.334499999999935</v>
+        <v>-47.998699999999644</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.7462173566947629E-2</v>
+        <v>-1.5316741394293759E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-5.5423420451616384E-2</v>
+        <v>-4.9040443937870368E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2701.6</v>
+        <v>2718</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-47.200000000000273</v>
+        <v>-37.809999999999945</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.534499999999753</v>
+        <v>-47.198699999999917</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.7171137340831935E-2</v>
+        <v>-1.3720113530401461E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-3.072286828139047E-2</v>
+        <v>-2.4669169648258785E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4888.8</v>
+        <v>4866</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-66.6899999999996</v>
+        <v>-90.859999999999673</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-59.947000000000116</v>
+        <v>-66.685499999999593</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.3457813568418192E-2</v>
+        <v>-1.8330138504108116E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.20467091468636001</v>
+        <v>-0.29089132843475923</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4827.6000000000004</v>
+        <v>4806.8</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-127.88999999999942</v>
+        <v>-150.05999999999949</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-121.14699999999993</v>
+        <v>-127.88549999999941</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.5807763941595514E-2</v>
+        <v>-3.0273173937117152E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.18115065074389161</v>
+        <v>-0.21666095072642669</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4749.8</v>
+        <v>4727.6000000000004</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-205.6899999999996</v>
+        <v>-229.25999999999931</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-188.14699999999993</v>
+        <v>-205.68549999999959</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.1507537455209909E-2</v>
+        <v>-4.6251018638034658E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.1317413145317532</v>
+        <v>-0.14808440177967236</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4666.4000000000005</v>
+        <v>4643.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-289.08999999999924</v>
+        <v>-313.25999999999931</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-284.34699999999975</v>
+        <v>-289.08550000000014</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.8337371787284868E-2</v>
+        <v>-6.3197217563250238E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10437814069783811</v>
+        <v>-0.11363046507677999</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>22.15</v>
+        <v>21.48</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.22149999999999997</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27165286948591016</v>
+        <v>0.27257020822206179</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.015286948591019E-2</v>
+        <v>-5.7770208222061803E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9119999999999999</v>
+        <v>2.9060000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B5" s="23">
         <v>2.9060000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-2.0625651863482564E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B7" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27165286948591016</v>
+        <v>0.27257020822206179</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B10" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B15" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B17" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B19" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B21" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B26" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B28" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B29" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B31" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B32" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B33" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>6.9763455332536488E-3</v>
+        <v>5.4734674141719069E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E2CD1-59CC-4510-BE45-1125FBECD34B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF57F3-0C04-42AA-96AC-2A88CDBECE3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,91 +609,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2729.6</v>
+        <v>2723</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3590.8</v>
+        <v>3579.6</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2707.6</v>
+        <v>2702.4</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4727.6000000000004</v>
+        <v>4721.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4806.8</v>
+        <v>4805</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4866</v>
+        <v>4868.6000000000004</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3627.4</v>
+        <v>3619.4</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3600</v>
+        <v>3593.2000000000003</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2713.6</v>
+        <v>2706.2000000000003</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2718</v>
+        <v>2709.8</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3584</v>
+        <v>3568.2000000000003</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4643.6000000000004</v>
+        <v>4629.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3663.91</v>
+        <v>3641.1800000000003</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -704,7 +704,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2755.81</v>
+        <v>2742.96</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -714,7 +714,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4956.8599999999997</v>
+        <v>4926.4000000000005</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43613</v>
+        <v>43614</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3627.4</v>
+        <v>3619.4</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-36.509999999999764</v>
+        <v>-21.7800000000002</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-46.260499999999865</v>
+        <v>-36.509000000000015</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-9.9647671380483967E-3</v>
+        <v>-5.9815719796364551E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.15813652197337674</v>
+        <v>-9.9239716934877542E-2</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3663.91</v>
+        <v>3641.1800000000003</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3600</v>
+        <v>3593.2000000000003</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-63.909999999999854</v>
+        <v>-47.980000000000018</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-71.260499999999865</v>
+        <v>-63.909000000000106</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7443118811083968E-2</v>
+        <v>-1.3177035058905169E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.12483800717736566</v>
+        <v>-9.6192355930007731E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3590.8</v>
+        <v>3579.6</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-73.109999999999673</v>
+        <v>-61.580000000000382</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-83.660499999999956</v>
+        <v>-73.108999999999924</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.995409820494987E-2</v>
+        <v>-1.6912084596235621E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-6.3888121445672838E-2</v>
+        <v>-5.4627529890495595E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3584</v>
+        <v>3568.2000000000003</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-79.909999999999854</v>
+        <v>-72.980000000000018</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-85.260499999999865</v>
+        <v>-79.909000000000106</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.1810039496068231E-2</v>
+        <v>-2.0042934943703607E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.9215095645639922E-2</v>
+        <v>-3.6216194328969387E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2729.6</v>
+        <v>2723</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-26.210000000000036</v>
+        <v>-19.960000000000036</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-33.198699999999917</v>
+        <v>-26.208100000000286</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-9.5108218892309797E-3</v>
+        <v>-7.276801167788065E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.1509326082421438</v>
+        <v>-0.12072874664739289</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2707.6</v>
+        <v>2702.4</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-48.210000000000036</v>
+        <v>-40.559999999999945</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-54.598700000000008</v>
+        <v>-48.208100000000286</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.7493961208692302E-2</v>
+        <v>-1.4786926621517184E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.1252018792386802</v>
+        <v>-0.10794456433707544</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2713.6</v>
+        <v>2706.2000000000003</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-42.210000000000036</v>
+        <v>-36.759999999999764</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-47.998699999999644</v>
+        <v>-42.208100000000286</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5316741394293759E-2</v>
+        <v>-1.3401563673741837E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.9040443937870368E-2</v>
+        <v>-4.3288236645272302E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2718</v>
+        <v>2709.8</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-37.809999999999945</v>
+        <v>-33.159999999999854</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-47.198699999999917</v>
+        <v>-37.808100000000195</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3720113530401461E-2</v>
+        <v>-1.2089114565323182E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.4669169648258785E-2</v>
+        <v>-2.1844192160113674E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4866</v>
+        <v>4868.6000000000004</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-90.859999999999673</v>
+        <v>-57.800000000000182</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-66.685499999999593</v>
+        <v>-90.863800000000083</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.8330138504108116E-2</v>
+        <v>-1.1732698279048664E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.29089132843475923</v>
+        <v>-0.19465613053876193</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4806.8</v>
+        <v>4805</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-150.05999999999949</v>
+        <v>-121.40000000000055</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-127.88549999999941</v>
+        <v>-150.0637999999999</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.0273173937117152E-2</v>
+        <v>-2.4642726143192212E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.21666095072642669</v>
+        <v>-0.17989190084530315</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4727.6000000000004</v>
+        <v>4721.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-229.25999999999931</v>
+        <v>-204.60000000000036</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-205.68549999999959</v>
+        <v>-229.26379999999972</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.6251018638034658E-2</v>
+        <v>-4.153131605351823E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.14808440177967236</v>
+        <v>-0.13414982619056773</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4643.6000000000004</v>
+        <v>4629.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-313.25999999999931</v>
+        <v>-296.80000000000018</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-289.08550000000014</v>
+        <v>-313.26379999999972</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.3197217563250238E-2</v>
+        <v>-6.024679669933624E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.11363046507677999</v>
+        <v>-0.10886178611513728</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>21.48</v>
+        <v>21.32</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.21479999999999999</v>
+        <v>0.2132</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27257020822206179</v>
+        <v>0.27258012258896946</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.7770208222061803E-2</v>
+        <v>-5.9380122588969464E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,7 +5769,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
@@ -5778,26 +5778,26 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9060000000000001</v>
+        <v>3.008</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>0</v>
+        <v>3.4497840939502249E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B6" s="23">
-        <v>3.008</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.6636177530672926E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-3.6636177530672926E-3</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27257020822206179</v>
+        <v>0.27258012258896946</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B9" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B14" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B16" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B18" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B20" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B25" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B27" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B28" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B30" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B31" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B32" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
+        <v>5.4734674141719069E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>5.4734674141719069E-3</v>
+        <v>-4.0109443015609383E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF57F3-0C04-42AA-96AC-2A88CDBECE3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB391B1-B091-4FC8-847B-07A6A51522F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,91 +609,91 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2723</v>
+        <v>2726.8</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3579.6</v>
+        <v>3570</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2702.4</v>
+        <v>2703.8</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4721.8</v>
+        <v>4618.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4805</v>
+        <v>4725.6000000000004</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4868.6000000000004</v>
+        <v>4788</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3619.4</v>
+        <v>3613.8</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3593.2000000000003</v>
+        <v>3588.4</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2706.2000000000003</v>
+        <v>2709</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2709.8</v>
+        <v>2711</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3568.2000000000003</v>
+        <v>3550</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4629.6000000000004</v>
+        <v>4528.8</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3641.1800000000003</v>
+        <v>3632.01</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
@@ -704,7 +704,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2742.96</v>
+        <v>2743.06</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
@@ -714,7 +714,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4926.4000000000005</v>
+        <v>4853.82</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43614</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3619.4</v>
+        <v>3613.8</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-21.7800000000002</v>
+        <v>-18.210000000000036</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-36.509000000000015</v>
+        <v>-34.98929999999973</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-5.9815719796364551E-3</v>
+        <v>-5.0137489882675895E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-9.9239716934877542E-2</v>
+        <v>-0.10166768781764834</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43615</v>
+        <v>43619</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3641.1800000000003</v>
+        <v>3632.01</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3593.2000000000003</v>
+        <v>3588.4</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-47.980000000000018</v>
+        <v>-43.610000000000127</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-63.909000000000106</v>
+        <v>-59.98929999999973</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3177035058905169E-2</v>
+        <v>-1.2007116605071377E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.6192355930007731E-2</v>
+        <v>-9.5273860018501133E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3579.6</v>
+        <v>3570</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-61.580000000000382</v>
+        <v>-62.010000000000218</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-73.108999999999924</v>
+        <v>-81.189300000000003</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.6912084596235621E-2</v>
+        <v>-1.7073178185748144E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.4627529890495595E-2</v>
+        <v>-5.7171651722918097E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3568.2000000000003</v>
+        <v>3550</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-72.980000000000018</v>
+        <v>-82.010000000000218</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-79.909000000000106</v>
+        <v>-97.389299999999821</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.0042934943703607E-2</v>
+        <v>-2.2579766860396776E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.6216194328969387E-2</v>
+        <v>-4.162431769719608E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2723</v>
+        <v>2726.8</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-19.960000000000036</v>
+        <v>-16.259999999999764</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-26.208100000000286</v>
+        <v>-21.945900000000165</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.276801167788065E-3</v>
+        <v>-5.9276770898998082E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.12072874664739289</v>
+        <v>-0.12020011876741278</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2702.4</v>
+        <v>2703.8</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-40.559999999999945</v>
+        <v>-39.259999999999764</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-48.208100000000286</v>
+        <v>-44.945900000000165</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.4786926621517184E-2</v>
+        <v>-1.4312460181394123E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.10794456433707544</v>
+        <v>-0.1135662601349751</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2706.2000000000003</v>
+        <v>2709</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-36.759999999999764</v>
+        <v>-34.059999999999945</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-42.208100000000286</v>
+        <v>-38.945900000000165</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3401563673741837E-2</v>
+        <v>-1.24167700911433E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.3288236645272302E-2</v>
+        <v>-4.1579092507039492E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2709.8</v>
+        <v>2711</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-33.159999999999854</v>
+        <v>-32.059999999999945</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-37.808100000000195</v>
+        <v>-38.745900000000347</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2089114565323182E-2</v>
+        <v>-1.1687658517969882E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.1844192160113674E-2</v>
+        <v>-2.154543110635862E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4868.6000000000004</v>
+        <v>4788</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-57.800000000000182</v>
+        <v>-65.819999999999709</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-90.863800000000083</v>
+        <v>-103.20049999999992</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.1732698279048664E-2</v>
+        <v>-1.3560466546800763E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.19465613053876193</v>
+        <v>-0.27497612719901549</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4805</v>
+        <v>4725.6000000000004</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-121.40000000000055</v>
+        <v>-128.21999999999935</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-150.0637999999999</v>
+        <v>-166.0005000000001</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.4642726143192212E-2</v>
+        <v>-2.6416332735198913E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.17989190084530315</v>
+        <v>-0.20960785757277398</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4721.8</v>
+        <v>4618.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-204.60000000000036</v>
+        <v>-235.01999999999953</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-229.26379999999972</v>
+        <v>-267.0005000000001</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.153131605351823E-2</v>
+        <v>-4.8419642173034377E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.13414982619056773</v>
+        <v>-0.16213916874456466</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4629.6000000000004</v>
+        <v>4528.8</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-296.80000000000018</v>
+        <v>-325.01999999999953</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-313.26379999999972</v>
+        <v>-358.80050000000028</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.024679669933624E-2</v>
+        <v>-6.696175686783952E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10886178611513728</v>
+        <v>-0.12343960230687587</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>21.32</v>
+        <v>22.21</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.2132</v>
+        <v>0.22210000000000002</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.27258012258896946</v>
+        <v>0.24990080443579593</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.9380122588969464E-2</v>
+        <v>-2.7800804435795912E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43570</v>
+        <v>43572</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9060000000000001</v>
+        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43571</v>
+        <v>43573</v>
       </c>
       <c r="B5" s="23">
-        <v>3.008</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>3.4497840939502249E-2</v>
+        <v>-3.3422491005533368E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43572</v>
+        <v>43574</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9969999999999999</v>
+        <v>3.024</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-3.6636177530672926E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43573</v>
+        <v>43577</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9870000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-3.3422491005533368E-3</v>
+        <v>-2.206709402867843E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.27258012258896946</v>
+        <v>0.24990080443579593</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43574</v>
+        <v>43578</v>
       </c>
       <c r="B8" s="23">
-        <v>3.024</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.2310919083313745E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43577</v>
+        <v>43579</v>
       </c>
       <c r="B9" s="23">
         <v>2.9580000000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-2.206709402867843E-2</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43579</v>
+        <v>43581</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43580</v>
+        <v>43584</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-1.5329886311310582E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43581</v>
+        <v>43585</v>
       </c>
       <c r="B13" s="23">
-        <v>2.88</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B14" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.4135729257749355E-2</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="B15" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43591</v>
+        <v>43593</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="B17" s="23">
-        <v>2.79</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="B19" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43599</v>
+        <v>43601</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.774</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43601</v>
+        <v>43605</v>
       </c>
       <c r="B24" s="23">
-        <v>2.774</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43602</v>
+        <v>43606</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.722</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="B26" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43606</v>
+        <v>43608</v>
       </c>
       <c r="B27" s="23">
-        <v>2.722</v>
+        <v>2.677</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43607</v>
+        <v>43609</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43608</v>
+        <v>43612</v>
       </c>
       <c r="B29" s="23">
-        <v>2.677</v>
+        <v>2.714</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43609</v>
+        <v>43613</v>
       </c>
       <c r="B30" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43612</v>
+        <v>43614</v>
       </c>
       <c r="B31" s="23">
-        <v>2.714</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
+        <v>5.4734674141719069E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43613</v>
+        <v>43615</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
+        <v>-4.0109443015609383E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43614</v>
+        <v>43616</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
+        <v>-3.2936900773263512E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43615</v>
+        <v>43619</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-4.0109443015609383E-3</v>
+        <v>4.3891804187631868E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB391B1-B091-4FC8-847B-07A6A51522F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BA2C1-00DD-4AFD-9614-599159A33D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2726.8</v>
+        <v>2709.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3570</v>
+        <v>3541.8</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2703.8</v>
+        <v>2687.6</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4618.8</v>
+        <v>4579</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4725.6000000000004</v>
+        <v>4682.4000000000005</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4788</v>
+        <v>4746.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3613.8</v>
+        <v>3586.2000000000003</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3588.4</v>
+        <v>3561.6</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2709</v>
+        <v>2691</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2711</v>
+        <v>2693.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3550</v>
+        <v>3518.8</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4528.8</v>
+        <v>4486</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3632.01</v>
+        <v>3598.4700000000003</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
-        <tr r="L2" s="1"/>
-        <tr r="E2" s="1"/>
         <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
         <tr r="E5" s="1"/>
+        <tr r="E2" s="1"/>
+        <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2743.06</v>
+        <v>2721.31</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E10" s="1"/>
+        <tr r="E9" s="1"/>
         <tr r="E8" s="1"/>
-        <tr r="E9" s="1"/>
-        <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4853.82</v>
+        <v>4795.41</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E17" s="1"/>
         <tr r="E14" s="1"/>
         <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
-        <tr r="E17" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43616</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3613.8</v>
+        <v>3586.2000000000003</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-18.210000000000036</v>
+        <v>-12.269999999999982</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-34.98929999999973</v>
+        <v>-18.212700000000041</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-5.0137489882675895E-3</v>
+        <v>-3.4097857126143623E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.10166768781764834</v>
+        <v>-7.3210105006131898E-2</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3632.01</v>
+        <v>3598.4700000000003</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3588.4</v>
+        <v>3561.6</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-43.610000000000127</v>
+        <v>-36.870000000000346</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-59.98929999999973</v>
+        <v>-43.612700000000132</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.2007116605071377E-2</v>
+        <v>-1.0246030906609038E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.5273860018501133E-2</v>
+        <v>-8.3106695131384412E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3570</v>
+        <v>3541.8</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.010000000000218</v>
+        <v>-56.670000000000073</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-81.189300000000003</v>
+        <v>-62.012700000000223</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7073178185748144E-2</v>
+        <v>-1.5748374599336302E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.7171651722918097E-2</v>
+        <v>-5.3223673414423613E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3550</v>
+        <v>3518.8</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-82.010000000000218</v>
+        <v>-79.670000000000073</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-97.389299999999821</v>
+        <v>-82.012700000000223</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.2579766860396776E-2</v>
+        <v>-2.2139985959575132E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.162431769719608E-2</v>
+        <v>-4.1020786168755957E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2726.8</v>
+        <v>2709.4</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-16.259999999999764</v>
+        <v>-11.909999999999854</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-21.945900000000165</v>
+        <v>-16.264400000000023</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-5.9276770898998082E-3</v>
+        <v>-4.3765623657013083E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.12020011876741278</v>
+        <v>-9.39673684400575E-2</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2703.8</v>
+        <v>2687.6</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-39.259999999999764</v>
+        <v>-33.710000000000036</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-44.945900000000165</v>
+        <v>-39.264400000000023</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.4312460181394123E-2</v>
+        <v>-1.2387398601829813E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.1135662601349751</v>
+        <v>-0.10047556643706403</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2709</v>
+        <v>2691</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-34.059999999999945</v>
+        <v>-30.309999999999945</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-38.945900000000165</v>
+        <v>-34.064400000000205</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.24167700911433E-2</v>
+        <v>-1.1138002124635437E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.1579092507039492E-2</v>
+        <v>-3.7642321995295686E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2711</v>
+        <v>2693.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-32.059999999999945</v>
+        <v>-28.109999999999673</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-38.745900000000347</v>
+        <v>-32.064400000000205</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1687658517969882E-2</v>
+        <v>-1.0329569109980173E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.154543110635862E-2</v>
+        <v>-1.9138541751993723E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4788</v>
+        <v>4746.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-65.819999999999709</v>
+        <v>-48.609999999999673</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-103.20049999999992</v>
+        <v>-65.815300000000207</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.3560466546800763E-2</v>
+        <v>-1.0136770495821052E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.27497612719901549</v>
+        <v>-0.21764242535145201</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4725.6000000000004</v>
+        <v>4682.4000000000005</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-128.21999999999935</v>
+        <v>-113.00999999999931</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-166.0005000000001</v>
+        <v>-128.21529999999984</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.6416332735198913E-2</v>
+        <v>-2.3566271008696519E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.20960785757277398</v>
+        <v>-0.19114864262609399</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4618.8</v>
+        <v>4579</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-235.01999999999953</v>
+        <v>-216.40999999999985</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-267.0005000000001</v>
+        <v>-235.01530000000002</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.8419642173034377E-2</v>
+        <v>-4.5128543571294942E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.16213916874456466</v>
+        <v>-0.15251776299558012</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4528.8</v>
+        <v>4486</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-325.01999999999953</v>
+        <v>-309.40999999999985</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-358.80050000000028</v>
+        <v>-325.01530000000002</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.696175686783952E-2</v>
+        <v>-6.4522076920633845E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.12343960230687587</v>
+        <v>-0.11954598008137743</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>22.21</v>
+        <v>22.75</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.22210000000000002</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.24990080443579593</v>
+        <v>0.25012495615970709</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-2.7800804435795912E-2</v>
+        <v>-2.2624956159707083E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9969999999999999</v>
+        <v>2.9870000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9870000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-3.3422491005533368E-3</v>
+        <v>1.2310919083313745E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B6" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.2310919083313745E-2</v>
+        <v>-2.206709402867843E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.24990080443579593</v>
+        <v>0.25012495615970709</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B11" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B13" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B15" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B17" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B22" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B24" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B25" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B27" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B28" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B29" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
+        <v>5.4734674141719069E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
+        <v>-4.0109443015609383E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
+        <v>-3.2936900773263512E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
+        <v>4.3891804187631868E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B34" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>4.3891804187631868E-3</v>
+        <v>-6.5910161707046647E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BA2C1-00DD-4AFD-9614-599159A33D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7D42A-D1AC-4540-97A4-2B9BB04CA98A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2709.4</v>
+        <v>2703.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3541.8</v>
+        <v>3532</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2687.6</v>
+        <v>2680.2000000000003</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4579</v>
+        <v>4547.4000000000005</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4682.4000000000005</v>
+        <v>4655</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4746.8</v>
+        <v>4721.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3586.2000000000003</v>
+        <v>3574.6</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3561.6</v>
+        <v>3550</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2691</v>
+        <v>2685.8</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2693.2000000000003</v>
+        <v>2687.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3518.8</v>
+        <v>3511.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4486</v>
+        <v>4455.2</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3598.4700000000003</v>
+        <v>3597.11</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E5" s="1"/>
         <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
-        <tr r="E5" s="1"/>
         <tr r="E2" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2721.31</v>
+        <v>2719.59</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E8" s="1"/>
         <tr r="E10" s="1"/>
+        <tr r="E11" s="1"/>
         <tr r="E9" s="1"/>
-        <tr r="E8" s="1"/>
-        <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>4795.41</v>
+        <v>4783.82</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E17" s="1"/>
-        <tr r="E14" s="1"/>
         <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
+        <tr r="E14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5076,28 +5076,28 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3586.2000000000003</v>
+        <v>3574.6</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-12.269999999999982</v>
+        <v>-22.510000000000218</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-18.212700000000041</v>
+        <v>-12.266600000000381</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-3.4097857126143623E-3</v>
+        <v>-6.2578101000666415E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-7.3210105006131898E-2</v>
+        <v>-0.14275629290777025</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3598.4700000000003</v>
+        <v>3597.11</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3561.6</v>
+        <v>3550</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-36.870000000000346</v>
+        <v>-47.110000000000127</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-43.612700000000132</v>
+        <v>-36.86660000000029</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.0246030906609038E-2</v>
+        <v>-1.3096642994852841E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-8.3106695131384412E-2</v>
+        <v>-0.10864260666184743</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3541.8</v>
+        <v>3532</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-56.670000000000073</v>
+        <v>-65.110000000000127</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.012700000000223</v>
+        <v>-56.666600000000017</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.5748374599336302E-2</v>
+        <v>-1.8100667064208615E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.3223673414423613E-2</v>
+        <v>-6.1745266153608827E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3518.8</v>
+        <v>3511.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-79.670000000000073</v>
+        <v>-85.510000000000218</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-82.012700000000223</v>
+        <v>-79.666600000000017</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.2139985959575132E-2</v>
+        <v>-2.377189434281185E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.1020786168755957E-2</v>
+        <v>-4.426908895472615E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2709.4</v>
+        <v>2703.4</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-11.909999999999854</v>
+        <v>-16.190000000000055</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-16.264400000000023</v>
+        <v>-11.913900000000012</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-4.3765623657013083E-3</v>
+        <v>-5.9530924991806882E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-9.39673684400575E-2</v>
+        <v>-0.13580492263755944</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2687.6</v>
+        <v>2680.2000000000003</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-33.710000000000036</v>
+        <v>-39.389999999999873</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-39.264400000000023</v>
+        <v>-33.713900000000194</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2387398601829813E-2</v>
+        <v>-1.4483774771014563E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.10047556643706403</v>
+        <v>-0.12014949525955262</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2691</v>
+        <v>2685.8</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-30.309999999999945</v>
+        <v>-33.789999999999964</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-34.064400000000205</v>
+        <v>-30.313900000000103</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1138002124635437E-2</v>
+        <v>-1.2424644567468472E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.7642321995295686E-2</v>
+        <v>-4.238313333762609E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2693.2000000000003</v>
+        <v>2687.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-28.109999999999673</v>
+        <v>-32.389999999999873</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.064400000000205</v>
+        <v>-28.113900000000285</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0329569109980173E-2</v>
+        <v>-1.1909862016581908E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-1.9138541751993723E-2</v>
+        <v>-2.2179079775777533E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4746.8</v>
+        <v>4721.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-48.609999999999673</v>
+        <v>-62.019999999999527</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-65.815300000000207</v>
+        <v>-48.612900000000081</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.0136770495821052E-2</v>
+        <v>-1.2964522423429105E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.21764242535145201</v>
+        <v>-0.29575316778447647</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4682.4000000000005</v>
+        <v>4655</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-113.00999999999931</v>
+        <v>-128.81999999999971</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-128.21529999999984</v>
+        <v>-113.01290000000063</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.3566271008696519E-2</v>
+        <v>-2.6928245381911423E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.19114864262609399</v>
+        <v>-0.22338203555449249</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4579</v>
+        <v>4547.4000000000005</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-216.40999999999985</v>
+        <v>-236.41999999999916</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-235.01530000000002</v>
+        <v>-216.41290000000026</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.5128543571294942E-2</v>
+        <v>-4.9420709309047434E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.15251776299558012</v>
+        <v>-0.16858466259628332</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4486</v>
+        <v>4455.2</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-309.40999999999985</v>
+        <v>-328.61999999999989</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-325.01530000000002</v>
+        <v>-309.41290000000026</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.4522076920633845E-2</v>
+        <v>-6.8693991596054563E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.11954598008137743</v>
+        <v>-0.12792503537020367</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>22.75</v>
+        <v>22.35</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.22750000000000001</v>
+        <v>0.2235</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.25012495615970709</v>
+        <v>0.24576627110005381</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-2.2624956159707083E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-2.2266271100053803E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9870000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B5" s="23">
-        <v>3.024</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.2310919083313745E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.206709402867843E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-2.206709402867843E-2</v>
+        <v>1.6889043028200429E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.25012495615970709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.24576627110005381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B10" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B12" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B13" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B14" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B15" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B16" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B21" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B23" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B24" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B26" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B27" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B28" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B33" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B34" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7D42A-D1AC-4540-97A4-2B9BB04CA98A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4DB3F0-9E0A-4A9B-92EE-AA4DFD5D6112}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,112 +609,112 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2703.4</v>
+        <v>2689.8</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3532</v>
+        <v>3502.2000000000003</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2680.2000000000003</v>
+        <v>2667.4</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4547.4000000000005</v>
+        <v>4437.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4655</v>
+        <v>4552</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4721.8</v>
+        <v>4611.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3574.6</v>
+        <v>3544.6</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3550</v>
+        <v>3516.6</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2685.8</v>
+        <v>2669</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2687.2000000000003</v>
+        <v>2671.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3511.6</v>
+        <v>3488.4</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4455.2</v>
+        <v>4345.3999999999996</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3597.11</v>
+        <v>3564.6800000000003</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E5" s="1"/>
+        <tr r="E4" s="1"/>
         <tr r="E3" s="1"/>
-        <tr r="E4" s="1"/>
         <tr r="E2" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2719.59</v>
+        <v>2706.76</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E9" s="1"/>
+        <tr r="E10" s="1"/>
         <tr r="E8" s="1"/>
-        <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
-        <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>4783.82</v>
+        <v>4678.78</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
@@ -5076,28 +5076,28 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3574.6</v>
+        <v>3544.6</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-22.510000000000218</v>
+        <v>-20.080000000000382</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-12.266600000000381</v>
+        <v>-22.505000000000109</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-6.2578101000666415E-3</v>
+        <v>-5.6330476768476469E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.14275629290777025</v>
+        <v>-0.13707082680329272</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3597.11</v>
+        <v>3564.6800000000003</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3550</v>
+        <v>3516.6</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-47.110000000000127</v>
+        <v>-48.080000000000382</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-36.86660000000029</v>
+        <v>-47.105000000000018</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3096642994852841E-2</v>
+        <v>-1.3487895035001588E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.10864260666184743</v>
+        <v>-0.1144902718087344</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3532</v>
+        <v>3502.2000000000003</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-65.110000000000127</v>
+        <v>-62.480000000000018</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-56.666600000000017</v>
+        <v>-65.105000000000018</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.8100667064208615E-2</v>
+        <v>-1.7527530819194941E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-6.1745266153608827E-2</v>
+        <v>-6.035423348119013E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3511.6</v>
+        <v>3488.4</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-85.510000000000218</v>
+        <v>-76.2800000000002</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-79.666600000000017</v>
+        <v>-85.505000000000109</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.377189434281185E-2</v>
+        <v>-2.1398848445713721E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.426908895472615E-2</v>
+        <v>-4.0054254783002605E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2703.4</v>
+        <v>2689.8</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-16.190000000000055</v>
+        <v>-16.960000000000036</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-11.913900000000012</v>
+        <v>-16.194899999999961</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-5.9530924991806882E-3</v>
+        <v>-6.2657889291415888E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.13580492263755944</v>
+        <v>-0.15246753060911197</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2680.2000000000003</v>
+        <v>2667.4</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-39.389999999999873</v>
+        <v>-39.360000000000127</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-33.713900000000194</v>
+        <v>-39.394900000000234</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.4483774771014563E-2</v>
+        <v>-1.4541359212913513E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.12014949525955262</v>
+        <v>-0.12343246773752169</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2685.8</v>
+        <v>2669</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-33.789999999999964</v>
+        <v>-37.760000000000218</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-30.313900000000103</v>
+        <v>-33.79489999999987</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2424644567468472E-2</v>
+        <v>-1.3950247049786983E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.238313333762609E-2</v>
+        <v>-4.8036228048794795E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2687.2000000000003</v>
+        <v>2671.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-32.389999999999873</v>
+        <v>-35.559999999999945</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-28.113900000000285</v>
+        <v>-32.394900000000234</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1909862016581908E-2</v>
+        <v>-1.3137467825487857E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.2179079775777533E-2</v>
+        <v>-2.4590644904118296E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4721.8</v>
+        <v>4611.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-62.019999999999527</v>
+        <v>-66.979999999999563</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-48.612900000000081</v>
+        <v>-62.024499999999534</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.2964522423429105E-2</v>
+        <v>-1.4315684219174445E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.29575316778447647</v>
+        <v>-0.34834831599991145</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4655</v>
+        <v>4552</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-128.81999999999971</v>
+        <v>-126.77999999999975</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-113.01290000000063</v>
+        <v>-128.82449999999972</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.6928245381911423E-2</v>
+        <v>-2.7096781805120099E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.22338203555449249</v>
+        <v>-0.23000756648532175</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4547.4000000000005</v>
+        <v>4437.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-236.41999999999916</v>
+        <v>-240.97999999999956</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-216.41290000000026</v>
+        <v>-236.42450000000008</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.9420709309047434E-2</v>
+        <v>-5.1504831041156669E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.16858466259628332</v>
+        <v>-0.17735154084926591</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4455.2</v>
+        <v>4345.3999999999996</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-328.61999999999989</v>
+        <v>-333.38000000000011</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-309.41290000000026</v>
+        <v>-328.6244999999999</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.8693991596054563E-2</v>
+        <v>-7.1253550388002518E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.12792503537020367</v>
+        <v>-0.1333720302134406</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,7 +5666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
@@ -5680,14 +5680,14 @@
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.24576627110005381</v>
+        <v>0.23930477284654403</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-2.2266271100053803E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1.5804772846544024E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43574</v>
+        <v>43577</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>3.024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.9580000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-2.206709402867843E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6889043028200429E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9630000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.6889043028200429E-3</v>
+        <v>-1.6889043028201264E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.24576627110005381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.23930477284654403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B9" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B11" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B12" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B13" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B15" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B20" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B22" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B23" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B25" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B26" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B27" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B32" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B33" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B34" s="23">
-        <v>2.718</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-1.4705885003223535E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1641575482342635E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4DB3F0-9E0A-4A9B-92EE-AA4DFD5D6112}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534A68E-27BD-43A2-8426-4B28226B2406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2689.8</v>
+        <v>2724</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3502.2000000000003</v>
+        <v>3548</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2667.4</v>
+        <v>2701.8</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4437.8</v>
+        <v>4479.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4552</v>
+        <v>4593</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4611.8</v>
+        <v>4658</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3544.6</v>
+        <v>3591.8</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3516.6</v>
+        <v>3564</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2669</v>
+        <v>2701.8</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2671.2000000000003</v>
+        <v>2699.2000000000003</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3488.4</v>
+        <v>3533</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4345.3999999999996</v>
+        <v>4376.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3564.6800000000003</v>
+        <v>3610.7400000000002</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E4" s="1"/>
+        <tr r="E2" s="1"/>
         <tr r="E5" s="1"/>
-        <tr r="E4" s="1"/>
         <tr r="E3" s="1"/>
-        <tr r="E2" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2706.76</v>
+        <v>2743.37</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E9" s="1"/>
-        <tr r="E10" s="1"/>
         <tr r="E8" s="1"/>
         <tr r="E11" s="1"/>
+        <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>4678.78</v>
+        <v>4725.26</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E17" s="1"/>
         <tr r="E15" s="1"/>
+        <tr r="E14" s="1"/>
         <tr r="E16" s="1"/>
-        <tr r="E14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5075,29 +5075,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3544.6</v>
+        <v>3591.8</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-20.080000000000382</v>
+        <v>-18.940000000000055</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-22.505000000000109</v>
+        <v>-20.077800000000025</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-5.6330476768476469E-3</v>
+        <v>-5.2454570644522528E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.13707082680329272</v>
+        <v>-0.17405380259318839</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3564.6800000000003</v>
+        <v>3610.7400000000002</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3516.6</v>
+        <v>3564</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-48.080000000000382</v>
+        <v>-46.740000000000236</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-47.105000000000018</v>
+        <v>-48.077800000000025</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3487895035001588E-2</v>
+        <v>-1.2944702386087584E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.1144902718087344</v>
+        <v>-0.1211491377159479</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3502.2000000000003</v>
+        <v>3548</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.480000000000018</v>
+        <v>-62.740000000000236</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-65.105000000000018</v>
+        <v>-62.477800000000116</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7527530819194941E-2</v>
+        <v>-1.7375922715086308E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-6.035423348119013E-2</v>
+        <v>-6.2178546970651991E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3488.4</v>
+        <v>3533</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-76.2800000000002</v>
+        <v>-77.740000000000236</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-85.505000000000109</v>
+        <v>-76.277799999999843</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.1398848445713721E-2</v>
+        <v>-2.1530191773522611E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.0054254783002605E-2</v>
+        <v>-4.1144083755684568E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2689.8</v>
+        <v>2724</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-16.960000000000036</v>
+        <v>-19.369999999999891</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-16.194899999999961</v>
+        <v>-16.962099999999737</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-6.2657889291415888E-3</v>
+        <v>-7.0606473888271144E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.15246753060911197</v>
+        <v>-0.23428511790199061</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2667.4</v>
+        <v>2701.8</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-39.360000000000127</v>
+        <v>-41.569999999999709</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-39.394900000000234</v>
+        <v>-39.362099999999828</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.4541359212913513E-2</v>
+        <v>-1.5152871035288734E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.12343246773752169</v>
+        <v>-0.14181533148411252</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2669</v>
+        <v>2701.8</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-37.760000000000218</v>
+        <v>-41.569999999999709</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-33.79489999999987</v>
+        <v>-37.762099999999919</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3950247049786983E-2</v>
+        <v>-1.5152871035288734E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.8036228048794795E-2</v>
+        <v>-5.4223509096866553E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2671.2000000000003</v>
+        <v>2699.2000000000003</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-35.559999999999945</v>
+        <v>-44.169999999999618</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.394900000000234</v>
+        <v>-35.5621000000001</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3137467825487857E-2</v>
+        <v>-1.6100608939829258E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.4590644904118296E-2</v>
+        <v>-3.0768179387631829E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4611.8</v>
+        <v>4658</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-66.979999999999563</v>
+        <v>-67.260000000000218</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-62.024499999999534</v>
+        <v>-66.984399999999368</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.4315684219174445E-2</v>
+        <v>-1.4234124427706663E-2</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.34834831599991145</v>
+        <v>-0.47231412873753925</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4552</v>
+        <v>4593</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-126.77999999999975</v>
+        <v>-132.26000000000022</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-128.82449999999972</v>
+        <v>-126.78439999999955</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.7096781805120099E-2</v>
+        <v>-2.7989968730426407E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.23000756648532175</v>
+        <v>-0.26195739965655485</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4437.8</v>
+        <v>4479.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-240.97999999999956</v>
+        <v>-245.46000000000004</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-236.42450000000008</v>
+        <v>-240.98439999999937</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.1504831041156669E-2</v>
+        <v>-5.1946300654547521E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.17735154084926591</v>
+        <v>-0.18588627195009652</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4345.3999999999996</v>
+        <v>4376.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-333.38000000000011</v>
+        <v>-348.85999999999967</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-328.6244999999999</v>
+        <v>-333.38439999999991</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-7.1253550388002518E-2</v>
+        <v>-7.3828674514566234E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.1333720302134406</v>
+        <v>-0.14108621045977315</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>22.35</v>
+        <v>21.09</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.2235</v>
+        <v>0.2109</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.23930477284654403</v>
+        <v>0.24348776234696823</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-1.5804772846544024E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-3.2587762346968224E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
+        <v>2.9630000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>43579</v>
+      </c>
+      <c r="B5" s="23">
         <v>2.9580000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>43578</v>
-      </c>
-      <c r="B5" s="23">
-        <v>2.9630000000000001</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.6889043028200429E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.6889043028201264E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-1.6889043028201264E-3</v>
+        <v>-1.5329886311310582E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.23930477284654403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.24348776234696823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B8" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B10" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B11" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B12" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B13" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B14" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B15" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B19" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B21" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B22" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B24" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B25" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B26" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B31" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B32" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B33" s="23">
-        <v>2.718</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-1.4705885003223535E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-5.1641575482342635E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7040000000000002</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-5.1641575482342635E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.2860732100223336E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534A68E-27BD-43A2-8426-4B28226B2406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1EBD4-5B05-42F5-A35C-C1AA146CDCC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2724</v>
+        <v>2795.8</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3548</v>
+        <v>3679</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2701.8</v>
+        <v>2774.2000000000003</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4479.8</v>
+        <v>4713.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4593</v>
+        <v>4814.2</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4658</v>
+        <v>4876.6000000000004</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3591.8</v>
+        <v>3706.2000000000003</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3564</v>
+        <v>3683</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2701.8</v>
+        <v>2780.6</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2699.2000000000003</v>
+        <v>2777</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3533</v>
+        <v>3670.2000000000003</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4376.4000000000005</v>
+        <v>4626.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3610.7400000000002</v>
+        <v>3719.28</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E4" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="E2" s="1"/>
         <tr r="E5" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2743.37</v>
+        <v>2812.9</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E9" s="1"/>
-        <tr r="E8" s="1"/>
         <tr r="E11" s="1"/>
         <tr r="E10" s="1"/>
+        <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>4725.26</v>
+        <v>4901.47</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E14" s="1"/>
         <tr r="E17" s="1"/>
+        <tr r="E16" s="1"/>
         <tr r="E15" s="1"/>
-        <tr r="E14" s="1"/>
-        <tr r="E16" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5075,29 +5075,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3591.8</v>
+        <v>3706.2000000000003</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-18.940000000000055</v>
+        <v>-13.079999999999927</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-20.077800000000025</v>
+        <v>-18.943499999999858</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-5.2454570644522528E-3</v>
+        <v>-3.516813581912524E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.17405380259318839</v>
+        <v>-0.12836369573980713</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3610.7400000000002</v>
+        <v>3719.28</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3564</v>
+        <v>3683</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-46.740000000000236</v>
+        <v>-36.2800000000002</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-48.077800000000025</v>
+        <v>-46.74350000000004</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.2944702386087584E-2</v>
+        <v>-9.7545869076290353E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.1211491377159479</v>
+        <v>-9.3695374244331525E-2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3548</v>
+        <v>3679</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-62.740000000000236</v>
+        <v>-40.2800000000002</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.477800000000116</v>
+        <v>-62.74350000000004</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.7375922715086308E-2</v>
+        <v>-1.0830065067235318E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-6.2178546970651991E-2</v>
+        <v>-3.9138353955850406E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3533</v>
+        <v>3670.2000000000003</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-77.740000000000236</v>
+        <v>-49.079999999999927</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-76.277799999999843</v>
+        <v>-77.74350000000004</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-2.1530191773522611E-2</v>
+        <v>-1.3196117018369067E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-4.1144083755684568E-2</v>
+        <v>-2.5350435324761632E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2724</v>
+        <v>2795.8</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-19.369999999999891</v>
+        <v>-17.099999999999909</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-16.962099999999737</v>
+        <v>-19.374499999999898</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-7.0606473888271144E-3</v>
+        <v>-6.0791384374822149E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.23428511790199061</v>
+        <v>-0.22188855296810087</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2701.8</v>
+        <v>2774.2000000000003</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-41.569999999999709</v>
+        <v>-38.699999999999818</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-39.362099999999828</v>
+        <v>-41.574499999999716</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5152871035288734E-2</v>
+        <v>-1.3758050147986074E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.14181533148411252</v>
+        <v>-0.13214969221091888</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2701.8</v>
+        <v>2780.6</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-41.569999999999709</v>
+        <v>-32.300000000000182</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-37.762099999999919</v>
+        <v>-41.574499999999716</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5152871035288734E-2</v>
+        <v>-1.1482817048577643E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-5.4223509096866553E-2</v>
+        <v>-4.1497309135948908E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2699.2000000000003</v>
+        <v>2777</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-44.169999999999618</v>
+        <v>-35.900000000000091</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-35.5621000000001</v>
+        <v>-44.17450000000008</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.6100608939829258E-2</v>
+        <v>-1.2762635666994926E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-3.0768179387631829E-2</v>
+        <v>-2.4517694833963936E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4658</v>
+        <v>4876.6000000000004</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-67.260000000000218</v>
+        <v>-24.869999999999891</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-66.984399999999368</v>
+        <v>-67.264299999999821</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.4234124427706663E-2</v>
+        <v>-5.0739856267268688E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.47231412873753925</v>
+        <v>-0.18520047537553069</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4593</v>
+        <v>4814.2</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-132.26000000000022</v>
+        <v>-87.270000000000437</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-126.78439999999955</v>
+        <v>-132.26429999999982</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.7989968730426407E-2</v>
+        <v>-1.7804854267971775E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.26195739965655485</v>
+        <v>-0.17102031073183416</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4479.8</v>
+        <v>4713.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-245.46000000000004</v>
+        <v>-187.67000000000007</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-240.98439999999937</v>
+        <v>-245.46429999999964</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.1946300654547521E-2</v>
+        <v>-3.8288495479205313E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.18588627195009652</v>
+        <v>-0.13836931534564295</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4376.4000000000005</v>
+        <v>4626.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-348.85999999999967</v>
+        <v>-274.86999999999989</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-333.38439999999991</v>
+        <v>-348.86430000000018</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-7.3828674514566234E-2</v>
+        <v>-5.6079068324021715E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.14108621045977315</v>
+        <v>-0.10773084178035751</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>21.09</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.2109</v>
+        <v>0.19940000000000002</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.24348776234696823</v>
+        <v>0.25866153099245326</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-3.2587762346968224E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-5.9261530992453237E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9630000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.9580000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9580000000000002</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-1.6889043028201264E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.5329886311310582E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-1.5329886311310582E-2</v>
+        <v>-1.1393183829442939E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B7" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.24348776234696823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25866153099245326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.4135729257749355E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3935726934612195E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B9" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B10" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B11" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B12" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B13" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B15" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B18" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B20" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B21" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B22" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B23" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B24" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B25" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B29" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B30" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B31" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B32" s="23">
-        <v>2.718</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-1.4705885003223535E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1641575482342635E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7040000000000002</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-5.1641575482342635E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2860732100223336E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7389999999999999</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>1.2860732100223336E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7014068411256163E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1EBD4-5B05-42F5-A35C-C1AA146CDCC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBEBB5-2A27-43C7-A1A1-D9C54F00849F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2795.8</v>
+        <v>2787.6</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3679</v>
+        <v>3639</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2774.2000000000003</v>
+        <v>2765</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4713.8</v>
+        <v>4629.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4814.2</v>
+        <v>4753</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4876.6000000000004</v>
+        <v>4816.4000000000005</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3706.2000000000003</v>
+        <v>3676</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3683</v>
+        <v>3650.2000000000003</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2780.6</v>
+        <v>2768.4</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2777</v>
+        <v>2767.4</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3670.2000000000003</v>
+        <v>3633.4</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4626.6000000000004</v>
+        <v>4544.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3719.28</v>
+        <v>3691.1</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E5" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="E2" s="1"/>
-        <tr r="E5" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2812.9</v>
+        <v>2796.73</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E8" s="1"/>
+        <tr r="E11" s="1"/>
         <tr r="E9" s="1"/>
-        <tr r="E11" s="1"/>
         <tr r="E10" s="1"/>
-        <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>4901.47</v>
+        <v>4863.49</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E14" s="1"/>
+        <tr r="E15" s="1"/>
         <tr r="E17" s="1"/>
         <tr r="E16" s="1"/>
-        <tr r="E15" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5075,29 +5075,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3706.2000000000003</v>
+        <v>3676</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-13.079999999999927</v>
+        <v>-15.099999999999909</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-18.943499999999858</v>
+        <v>-13.075900000000274</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-3.516813581912524E-3</v>
+        <v>-4.0909261713262838E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.12836369573980713</v>
+        <v>-0.1659097836148993</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3719.28</v>
+        <v>3691.1</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3683</v>
+        <v>3650.2000000000003</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-36.2800000000002</v>
+        <v>-40.899999999999636</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-46.74350000000004</v>
+        <v>-36.275900000000092</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-9.7545869076290353E-3</v>
+        <v>-1.1080720556771161E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-9.3695374244331525E-2</v>
+        <v>-0.10930981089787768</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3679</v>
+        <v>3639</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-40.2800000000002</v>
+        <v>-52.099999999999909</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-62.74350000000004</v>
+        <v>-40.275900000000092</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.0830065067235318E-2</v>
+        <v>-1.4115049902390748E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-3.9138353955850406E-2</v>
+        <v>-5.151993214372623E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3670.2000000000003</v>
+        <v>3633.4</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-49.079999999999927</v>
+        <v>-57.699999999999818</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-77.74350000000004</v>
+        <v>-49.075900000000274</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3196117018369067E-2</v>
+        <v>-1.5632214575200479E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-2.5350435324761632E-2</v>
+        <v>-3.0189197460043254E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2795.8</v>
+        <v>2787.6</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-17.099999999999909</v>
+        <v>-9.1300000000001091</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-19.374499999999898</v>
+        <v>-17.098599999999806</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-6.0791384374822149E-3</v>
+        <v>-3.2645245688369732E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.22188855296810087</v>
+        <v>-0.13239460751394391</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2774.2000000000003</v>
+        <v>2765</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-38.699999999999818</v>
+        <v>-31.730000000000018</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-41.574499999999716</v>
+        <v>-38.69860000000017</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.3758050147986074E-2</v>
+        <v>-1.1345384947338003E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.13214969221091888</v>
+        <v>-0.1119206893453614</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2780.6</v>
+        <v>2768.4</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-32.300000000000182</v>
+        <v>-28.329999999999927</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-41.574499999999716</v>
+        <v>-32.298600000000079</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1482817048577643E-2</v>
+        <v>-1.0129680288625422E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.1497309135948908E-2</v>
+        <v>-3.6973333053482792E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2777</v>
+        <v>2767.4</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-35.900000000000091</v>
+        <v>-29.329999999999927</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-44.17450000000008</v>
+        <v>-35.898599999999988</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2762635666994926E-2</v>
+        <v>-1.0487240482364407E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.4517694833963936E-2</v>
+        <v>-2.0253136381285758E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4876.6000000000004</v>
+        <v>4816.4000000000005</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-24.869999999999891</v>
+        <v>-47.089999999999236</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-67.264299999999821</v>
+        <v>-24.872299999999996</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.0739856267268688E-3</v>
+        <v>-9.6823430702735035E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.18520047537553069</v>
+        <v>-0.39267280229442542</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4814.2</v>
+        <v>4753</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-87.270000000000437</v>
+        <v>-110.48999999999978</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-132.26429999999982</v>
+        <v>-87.272300000000541</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-1.7804854267971775E-2</v>
+        <v>-2.2718243487673279E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.17102031073183416</v>
+        <v>-0.22411240197299317</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4713.8</v>
+        <v>4629.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-187.67000000000007</v>
+        <v>-233.6899999999996</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-245.46429999999964</v>
+        <v>-187.67230000000018</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-3.8288495479205313E-2</v>
+        <v>-4.8049835465964072E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.13836931534564295</v>
+        <v>-0.17538189945076887</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4626.6000000000004</v>
+        <v>4544.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-274.86999999999989</v>
+        <v>-319.08999999999924</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-348.86430000000018</v>
+        <v>-274.8723</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-5.6079068324021715E-2</v>
+        <v>-6.5609234450915585E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.10773084178035751</v>
+        <v>-0.12670566441578934</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>19.940000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.19940000000000002</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.25866153099245326</v>
+        <v>0.25545224250671816</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.9261530992453237E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-4.9452242506718147E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9580000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.9129999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9129999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-1.5329886311310582E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.1393183829442939E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B6" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>-1.1393183829442939E-2</v>
+        <v>1.4135729257749355E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.25866153099245326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.25545224250671816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B8" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.3935726934612195E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-4.9353847599253924E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B9" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B10" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B11" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B12" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B13" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B15" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B17" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B18" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B19" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B20" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B21" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B22" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B23" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B24" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B28" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B29" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B30" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B31" s="23">
-        <v>2.718</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.4705885003223535E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-5.1641575482342635E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7040000000000002</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-5.1641575482342635E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.2860732100223336E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="B33" s="23">
-        <v>2.7389999999999999</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>1.2860732100223336E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2.7014068411256163E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="B34" s="23">
-        <v>2.8140000000000001</v>
+        <v>2.802</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>2.7014068411256163E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-4.2735107773820497E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBEBB5-2A27-43C7-A1A1-D9C54F00849F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31156880-9C58-469A-9EAF-C55D714BCD14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史基差" sheetId="1" r:id="rId1"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2787.6</v>
+        <v>2783.8</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3639</v>
+        <v>3630</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2765</v>
+        <v>2760.4</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4629.8</v>
+        <v>4637</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4753</v>
+        <v>4766.2</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4816.4000000000005</v>
+        <v>4838.6000000000004</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3676</v>
+        <v>3668.6</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3650.2000000000003</v>
+        <v>3639.8</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2768.4</v>
+        <v>2760.2000000000003</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2767.4</v>
+        <v>2759</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3633.4</v>
+        <v>3623.6</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4544.4000000000005</v>
+        <v>4541.6000000000004</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3691.1</v>
+        <v>3685.39</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E5" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="E4" s="1"/>
         <tr r="E2" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2796.73</v>
+        <v>2794.54</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E8" s="1"/>
+        <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
         <tr r="E9" s="1"/>
-        <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>4863.49</v>
+        <v>4877.6500000000005</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E15" s="1"/>
+        <tr r="E16" s="1"/>
+        <tr r="E17" s="1"/>
         <tr r="E14" s="1"/>
-        <tr r="E15" s="1"/>
-        <tr r="E17" s="1"/>
-        <tr r="E16" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5076,28 +5076,28 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5125,10 +5125,10 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3676</v>
+        <v>3668.6</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-15.099999999999909</v>
+        <v>-16.789999999999964</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-13.075900000000274</v>
+        <v>-15.095699999999852</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-4.0909261713262838E-3</v>
+        <v>-4.5558231193397903E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.1659097836148993</v>
+        <v>-0.20785942981987793</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3691.1</v>
+        <v>3685.39</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3650.2000000000003</v>
+        <v>3639.8</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-40.899999999999636</v>
+        <v>-45.589999999999691</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-36.275900000000092</v>
+        <v>-40.895700000000033</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.1080720556771161E-2</v>
+        <v>-1.2370457177528296E-2</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.10930981089787768</v>
+        <v>-0.12542269082771745</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3639</v>
+        <v>3630</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-52.099999999999909</v>
+        <v>-55.389999999999873</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-40.275900000000092</v>
+        <v>-52.095699999999852</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.4115049902390748E-2</v>
+        <v>-1.5029603488995291E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.151993214372623E-2</v>
+        <v>-5.5412174479629102E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3633.4</v>
+        <v>3623.6</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-57.699999999999818</v>
+        <v>-61.789999999999964</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-49.075900000000274</v>
+        <v>-57.695699999999761</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.5632214575200479E-2</v>
+        <v>-1.6766188835259443E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.0189197460043254E-2</v>
+        <v>-3.2551377259945197E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -5327,30 +5327,30 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2787.6</v>
+        <v>2783.8</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-9.1300000000001091</v>
+        <v>-10.739999999999782</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-17.098599999999806</v>
+        <v>-9.1319000000003143</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-3.2645245688369732E-3</v>
+        <v>-3.8432139058786115E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.13239460751394391</v>
+        <v>-0.17534663445571166</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
         <v>2019-06-21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -5363,30 +5363,30 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2765</v>
+        <v>2760.4</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-31.730000000000018</v>
+        <v>-34.139999999999873</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-38.69860000000017</v>
+        <v>-31.731900000000223</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1345384947338003E-2</v>
+        <v>-1.2216696717569643E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.1119206893453614</v>
+        <v>-0.12386373060869221</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
         <v>2019-07-19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2768.4</v>
+        <v>2760.2000000000003</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-28.329999999999927</v>
+        <v>-34.339999999999691</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-32.298600000000079</v>
+        <v>-28.331900000000132</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0129680288625422E-2</v>
+        <v>-1.228826494672933E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-3.6973333053482792E-2</v>
+        <v>-4.5305219248042483E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -5436,34 +5436,34 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2767.4</v>
+        <v>2759</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-29.329999999999927</v>
+        <v>-35.539999999999964</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-35.898599999999988</v>
+        <v>-29.331900000000132</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.0487240482364407E-2</v>
+        <v>-1.2717674321687942E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.0253136381285758E-2</v>
+        <v>-2.4691229401149463E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4816.4000000000005</v>
+        <v>4838.6000000000004</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-47.089999999999236</v>
+        <v>-39.050000000000182</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-24.872299999999996</v>
+        <v>-47.092200000000048</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-9.6823430702735035E-3</v>
+        <v>-8.0059036620192831E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.39267280229442542</v>
+        <v>-0.36526935457962978</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4753</v>
+        <v>4766.2</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-110.48999999999978</v>
+        <v>-111.45000000000073</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-87.272300000000541</v>
+        <v>-110.49219999999968</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.2718243487673279E-2</v>
+        <v>-2.2849115573163912E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.22411240197299317</v>
+        <v>-0.23166464400568967</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -5577,30 +5577,30 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4629.8</v>
+        <v>4637</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-233.6899999999996</v>
+        <v>-240.65000000000055</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-187.67230000000018</v>
+        <v>-233.6921999999995</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.8049835465964072E-2</v>
+        <v>-4.933727826542729E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.17538189945076887</v>
+        <v>-0.18190006633213093</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
@@ -5613,48 +5613,48 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4544.4000000000005</v>
+        <v>4541.6000000000004</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-319.08999999999924</v>
+        <v>-336.05000000000018</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-274.8723</v>
+        <v>-319.09220000000005</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.5609234450915585E-2</v>
+        <v>-6.8895875175968471E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.12670566441578934</v>
+        <v>-0.13376060871930048</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>16</v>
@@ -5666,28 +5666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>20.6</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.20600000000000002</v>
+        <v>0.20079999999999998</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.25545224250671816</v>
+        <v>0.25361879562069978</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-4.9452242506718147E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-5.2818795620699799E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -5695,32 +5695,32 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
     </row>
   </sheetData>
@@ -5740,15 +5740,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5767,383 +5767,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9129999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43581</v>
+        <v>43584</v>
       </c>
       <c r="B5" s="23">
-        <v>2.88</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-1.1393183829442939E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4135729257749355E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.4135729257749355E-2</v>
+        <v>2.3935726934612195E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B7" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.3935726934612195E-3</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.25545224250671816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25361879562069978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B8" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-4.9353847599253924E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.07584733346311E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B9" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.07584733346311E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.6260520871780291E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B10" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-1.6260520871780291E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.1727976860448139E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B11" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-2.1727976860448139E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.3318110223616665E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B12" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>3.3318110223616665E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.8902780209455159E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B13" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.8902780209455159E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6.258073065178827E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0830279924269536E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B15" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.2496869183417103E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B16" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.8556108201017329E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B17" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.8528796557549513E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B18" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4855701934067867E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B19" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.7873411263162765E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B20" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1882798564742583E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B21" s="23">
-        <v>2.677</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2161072065531697E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43609</v>
+        <v>43612</v>
       </c>
       <c r="B22" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.714</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5106896679086105E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B23" s="23">
-        <v>2.714</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9763455332536488E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4734674141719069E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.0109443015609383E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.2936900773263512E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="B27" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3891804187631868E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="B28" s="23">
-        <v>2.74</v>
+        <v>2.722</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.5910161707046647E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B29" s="23">
-        <v>2.722</v>
+        <v>2.718</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.4705885003223535E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B30" s="23">
-        <v>2.718</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.4705885003223535E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1641575482342635E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43622</v>
+        <v>43626</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7040000000000002</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-5.1641575482342635E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2860732100223336E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="B32" s="23">
-        <v>2.7389999999999999</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1.2860732100223336E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7014068411256163E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="B33" s="23">
-        <v>2.8140000000000001</v>
+        <v>2.802</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>2.7014068411256163E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.2735107773820497E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="B34" s="23">
-        <v>2.802</v>
+        <v>2.7959999999999998</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-4.2735107773820497E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.1436235432515643E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
@@ -6164,12 +6164,12 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42373</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42374</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42376</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>70.180000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42377</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42380</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42381</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42382</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42383</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42384</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>70.08</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42387</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42388</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42389</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>67.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42390</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>42391</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42394</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42395</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42396</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>64.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42397</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42398</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42401</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42402</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42403</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42404</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42405</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42415</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42416</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>42417</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>42418</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42419</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42422</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42423</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>42424</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42425</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42426</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42429</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>64.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42430</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>64.290000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42431</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>42432</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42433</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>42436</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42437</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42438</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>42439</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42443</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42444</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>42445</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="24">
         <v>42446</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>42447</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>63.45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>42450</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>42451</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>42452</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>42453</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>42454</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>63.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>42457</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>42458</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>42459</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>42460</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>62.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>42461</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>42465</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>42466</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>62.63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>42467</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>42468</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>42471</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>42472</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>42473</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>62.49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>42474</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>42475</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>62.18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>42478</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>42479</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>42480</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>42481</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>42482</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>62.19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>42485</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>42486</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>42487</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>61.62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>42488</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>42489</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>42493</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>42494</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>42495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>61.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>42496</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>42499</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>42500</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>42501</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>42502</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>42503</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>42506</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>42507</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>42508</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>42509</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>42510</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>42513</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>42514</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>42515</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="24">
         <v>42516</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="24">
         <v>42517</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="24">
         <v>42520</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>60.42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="24">
         <v>42521</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="24">
         <v>42522</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="24">
         <v>42523</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>42524</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>42527</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>42528</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>42529</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>42534</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>42535</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60.71</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>42536</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>42537</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>42538</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>42541</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>42542</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>42543</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>42544</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>42545</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>42548</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>61.17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>42549</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>42550</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>42551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>42552</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>42555</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>42556</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>42557</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>42558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>60.62</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>42559</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>42562</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>42563</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="24">
         <v>42564</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="24">
         <v>42565</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="24">
         <v>42566</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="24">
         <v>42569</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>57.87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="24">
         <v>42570</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="24">
         <v>42571</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>42572</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>42573</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>42576</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>42577</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>42578</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>42579</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>42580</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>42583</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>42584</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>42585</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>42586</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>42587</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>42590</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>42591</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>42592</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>42593</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>42594</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>42597</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>42598</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>56.66</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>42599</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>42600</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="24">
         <v>42601</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>42604</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>42605</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>56.17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>42606</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>42607</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>42608</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>42611</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>42612</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>42613</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="24">
         <v>42614</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="24">
         <v>42615</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="24">
         <v>42618</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="24">
         <v>42619</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="24">
         <v>42620</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="24">
         <v>42621</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="24">
         <v>42622</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="24">
         <v>42625</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>55.02</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="24">
         <v>42626</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="24">
         <v>42627</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="24">
         <v>42632</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="24">
         <v>42633</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>42634</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>42635</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>42636</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>42639</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>42640</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>42641</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>42642</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>42643</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>42653</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>42654</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>42655</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>54.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>42656</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>42660</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>42661</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>42662</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>42663</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>42664</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>42667</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>42668</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>54.32</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>42669</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="24">
         <v>42670</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>42671</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="24">
         <v>42674</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="24">
         <v>42675</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="24">
         <v>42676</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="24">
         <v>42677</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="24">
         <v>42678</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>52.88</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="24">
         <v>42681</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="24">
         <v>42682</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="24">
         <v>42683</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="24">
         <v>42684</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.97</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="24">
         <v>42685</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>52.87</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>42688</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>42689</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>42690</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="24">
         <v>42691</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>51.53</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="24">
         <v>42692</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="24">
         <v>42695</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="24">
         <v>42696</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="24">
         <v>42697</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="24">
         <v>42698</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="24">
         <v>42699</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="24">
         <v>42702</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>42703</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>42704</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>42705</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="24">
         <v>42706</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="24">
         <v>42709</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="24">
         <v>42710</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>52.27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="24">
         <v>42711</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="24">
         <v>42712</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="24">
         <v>42713</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="24">
         <v>42716</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="24">
         <v>42717</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="24">
         <v>42718</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="24">
         <v>42719</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="24">
         <v>42720</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="24">
         <v>42723</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="24">
         <v>42724</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="24">
         <v>42725</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="24">
         <v>42726</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="24">
         <v>42727</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="24">
         <v>42730</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="24">
         <v>42731</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>54.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="24">
         <v>42732</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="24">
         <v>42733</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="24">
         <v>42734</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="24">
         <v>42738</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="24">
         <v>42739</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>54.64</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="24">
         <v>42740</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="24">
         <v>42741</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="24">
         <v>42744</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="24">
         <v>42745</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="24">
         <v>42746</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="24">
         <v>42747</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="24">
         <v>42748</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="24">
         <v>42751</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="24">
         <v>42752</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="24">
         <v>42753</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="24">
         <v>42754</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="24">
         <v>42755</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="24">
         <v>42758</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="24">
         <v>42759</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="24">
         <v>42760</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="24">
         <v>42761</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="24">
         <v>42769</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="24">
         <v>42772</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="24">
         <v>42773</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="24">
         <v>42774</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="24">
         <v>42775</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>55.77</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="24">
         <v>42776</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="24">
         <v>42779</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="24">
         <v>42780</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="24">
         <v>42781</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="24">
         <v>42782</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="24">
         <v>42783</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="24">
         <v>42786</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="24">
         <v>42787</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="24">
         <v>42788</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="24">
         <v>42789</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="24">
         <v>42790</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="24">
         <v>42793</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="24">
         <v>42794</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="24">
         <v>42795</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42796</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42797</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42800</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="24">
         <v>42801</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="24">
         <v>42802</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="24">
         <v>42803</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="24">
         <v>42804</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="24">
         <v>42807</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="24">
         <v>42808</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="24">
         <v>42809</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="24">
         <v>42810</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="24">
         <v>42811</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="24">
         <v>42814</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>55.55</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="24">
         <v>42815</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="24">
         <v>42816</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="24">
         <v>42817</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="24">
         <v>42818</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="24">
         <v>42821</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="24">
         <v>42822</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="24">
         <v>42823</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="24">
         <v>42824</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="24">
         <v>42825</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>54.57</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="24">
         <v>42830</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="24">
         <v>42831</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="24">
         <v>42832</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="24">
         <v>42835</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="24">
         <v>42836</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="24">
         <v>42837</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="24">
         <v>42838</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>54.06</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="24">
         <v>42839</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="24">
         <v>42842</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="24">
         <v>42843</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="24">
         <v>42844</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="24">
         <v>42845</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="24">
         <v>42846</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>53.39</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="24">
         <v>42849</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="24">
         <v>42850</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="24">
         <v>42851</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="24">
         <v>42852</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>54.19</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="24">
         <v>42853</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="24">
         <v>42857</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="24">
         <v>42858</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="24">
         <v>42859</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="24">
         <v>42860</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="24">
         <v>42863</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="24">
         <v>42864</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="24">
         <v>42865</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="24">
         <v>42866</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="24">
         <v>42867</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="24">
         <v>42870</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="24">
         <v>42871</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="24">
         <v>42872</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="24">
         <v>42873</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="24">
         <v>42874</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="24">
         <v>42877</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="24">
         <v>42878</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="24">
         <v>42879</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51.92</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="24">
         <v>42880</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>51.65</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="24">
         <v>42881</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="24">
         <v>42886</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="24">
         <v>42887</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="24">
         <v>42888</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>50.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="24">
         <v>42891</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="24">
         <v>42892</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="24">
         <v>42893</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="24">
         <v>42894</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="24">
         <v>42895</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>51.54</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="24">
         <v>42898</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>51.31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="24">
         <v>42899</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="24">
         <v>42900</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>51.82</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="24">
         <v>42901</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="24">
         <v>42902</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="24">
         <v>42905</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>51.71</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="24">
         <v>42906</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="24">
         <v>42907</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="24">
         <v>42908</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="24">
         <v>42909</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="24">
         <v>42912</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="24">
         <v>42913</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="24">
         <v>42914</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="24">
         <v>42915</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="24">
         <v>42916</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="24">
         <v>42919</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="24">
         <v>42920</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="24">
         <v>42921</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="24">
         <v>42922</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="24">
         <v>42923</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="24">
         <v>42926</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="24">
         <v>42927</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="24">
         <v>42928</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="24">
         <v>42929</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="24">
         <v>42930</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="24">
         <v>42933</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="24">
         <v>42934</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="24">
         <v>42935</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="24">
         <v>42936</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="24">
         <v>42937</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="24">
         <v>42940</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="24">
         <v>42941</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="24">
         <v>42942</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>52.66</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="24">
         <v>42943</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="24">
         <v>42944</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="24">
         <v>42947</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="24">
         <v>42948</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="24">
         <v>42949</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="24">
         <v>42950</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="24">
         <v>42951</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="24">
         <v>42954</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="24">
         <v>42955</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="24">
         <v>42956</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="24">
         <v>42957</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="24">
         <v>42958</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="24">
         <v>42961</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="24">
         <v>42962</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="24">
         <v>42963</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="24">
         <v>42964</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="24">
         <v>42965</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="24">
         <v>42968</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="24">
         <v>42969</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="24">
         <v>42970</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="24">
         <v>42971</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="24">
         <v>42972</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="24">
         <v>42975</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="24">
         <v>42976</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="24">
         <v>42977</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="24">
         <v>42978</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="24">
         <v>42979</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="24">
         <v>42982</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="24">
         <v>42983</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="24">
         <v>42984</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="24">
         <v>42985</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="24">
         <v>42986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="24">
         <v>42989</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="24">
         <v>42990</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="24">
         <v>42991</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="24">
         <v>42992</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="24">
         <v>42993</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="24">
         <v>42996</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="24">
         <v>42997</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="24">
         <v>42998</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="24">
         <v>42999</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="24">
         <v>43000</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="24">
         <v>43003</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="24">
         <v>43004</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>53.24</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="24">
         <v>43005</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="24">
         <v>43006</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="24">
         <v>43007</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>53.27</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="24">
         <v>43017</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="24">
         <v>43018</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>53.43</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="24">
         <v>43019</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="24">
         <v>43020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="24">
         <v>43021</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="24">
         <v>43024</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="24">
         <v>43025</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="24">
         <v>43026</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="24">
         <v>43027</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="24">
         <v>43028</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="24">
         <v>43031</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="24">
         <v>43032</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="24">
         <v>43033</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="24">
         <v>43034</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="24">
         <v>43035</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="24">
         <v>43038</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="24">
         <v>43039</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="24">
         <v>43040</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="24">
         <v>43041</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="24">
         <v>43042</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="24">
         <v>43045</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="24">
         <v>43046</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="24">
         <v>43047</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="24">
         <v>43048</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="24">
         <v>43049</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="24">
         <v>43052</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="24">
         <v>43053</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="24">
         <v>43054</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="24">
         <v>43055</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="24">
         <v>43056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="24">
         <v>43059</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>56.02</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="24">
         <v>43060</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="24">
         <v>43061</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="24">
         <v>43062</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="24">
         <v>43063</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="24">
         <v>43066</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="24">
         <v>43067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="24">
         <v>43068</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="24">
         <v>43069</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="24">
         <v>43070</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="24">
         <v>43073</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="24">
         <v>43074</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="24">
         <v>43075</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="24">
         <v>43076</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="24">
         <v>43077</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="24">
         <v>43080</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="24">
         <v>43081</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="24">
         <v>43082</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="24">
         <v>43083</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>57.08</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="24">
         <v>43084</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="24">
         <v>43087</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="24">
         <v>43088</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="24">
         <v>43089</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="24">
         <v>43090</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="24">
         <v>43091</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="24">
         <v>43094</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="24">
         <v>43095</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="24">
         <v>43096</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="24">
         <v>43097</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="24">
         <v>43098</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="24">
         <v>43102</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="24">
         <v>43103</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="24">
         <v>43104</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="24">
         <v>43105</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="24">
         <v>43108</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>55.72</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="24">
         <v>43109</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="24">
         <v>43110</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="24">
         <v>43111</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="24">
         <v>43112</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="24">
         <v>43115</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="24">
         <v>43116</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="24">
         <v>43117</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="24">
         <v>43118</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="24">
         <v>43119</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>54.58</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="24">
         <v>43122</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="24">
         <v>43123</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="24">
         <v>43124</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>55.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="24">
         <v>43125</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="24">
         <v>43126</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="24">
         <v>43129</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="24">
         <v>43130</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="24">
         <v>43131</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="24">
         <v>43132</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="24">
         <v>43133</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="24">
         <v>43136</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="24">
         <v>43137</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>57.45</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="24">
         <v>43138</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>57.94</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="24">
         <v>43139</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>57.37</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="24">
         <v>43140</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="24">
         <v>43143</v>
       </c>

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31156880-9C58-469A-9EAF-C55D714BCD14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6577F-C8C0-4806-9EFB-486E65862BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2783.8</v>
+        <v>2787.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3630</v>
+        <v>3604.8</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2760.4</v>
+        <v>2762</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4637</v>
+        <v>4576.8</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4766.2</v>
+        <v>4699</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4838.6000000000004</v>
+        <v>4792.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3668.6</v>
+        <v>3652</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3639.8</v>
+        <v>3621.8</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2760.2000000000003</v>
+        <v>2751</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2759</v>
+        <v>2750.8</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3623.6</v>
+        <v>3596.8</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4541.6000000000004</v>
+        <v>4463.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3685.39</v>
+        <v>3654.82</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E2" s="1"/>
         <tr r="E5" s="1"/>
         <tr r="E4" s="1"/>
-        <tr r="E2" s="1"/>
         <tr r="E3" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2794.54</v>
+        <v>2793.7000000000003</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E10" s="1"/>
         <tr r="E8" s="1"/>
-        <tr r="E10" s="1"/>
         <tr r="E11" s="1"/>
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>4877.6500000000005</v>
+        <v>4802.82</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="E15" s="1"/>
+        <tr r="E14" s="1"/>
         <tr r="E16" s="1"/>
         <tr r="E17" s="1"/>
-        <tr r="E14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43628</v>
+        <v>43630</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3668.6</v>
+        <v>3652</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-16.789999999999964</v>
+        <v>-2.8200000000001637</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-15.095699999999852</v>
+        <v>-9.8798999999999069</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-4.5558231193397903E-3</v>
+        <v>-7.7158281294363649E-4</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-0.20785942981987793</v>
+        <v>-7.040693168110683E-2</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43633</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3685.39</v>
+        <v>3654.82</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5186,23 +5186,23 @@
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3639.8</v>
+        <v>3621.8</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-45.589999999999691</v>
+        <v>-33.019999999999982</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-40.895700000000033</v>
+        <v>-39.279899999999998</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.2370457177528296E-2</v>
+        <v>-9.0346327955309873E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.12542269082771745</v>
+        <v>-0.10305128032402533</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5223,23 +5223,23 @@
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3630</v>
+        <v>3604.8</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-55.389999999999873</v>
+        <v>-50.019999999999982</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-52.095699999999852</v>
+        <v>-52.879899999999907</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.5029603488995291E-2</v>
+        <v>-1.3686018547318598E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.5412174479629102E-2</v>
+        <v>-5.2583123892329345E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3623.6</v>
+        <v>3596.8</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-61.789999999999964</v>
+        <v>-58.019999999999982</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-57.695699999999761</v>
+        <v>-63.879899999999907</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.6766188835259443E-2</v>
+        <v>-1.587490595992453E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.2551377259945197E-2</v>
+        <v>-3.1490981931372029E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5327,23 +5327,23 @@
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2783.8</v>
+        <v>2787.4</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-10.739999999999782</v>
+        <v>-6.3000000000001819</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-9.1319000000003143</v>
+        <v>-10.405500000000302</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-3.8432139058786115E-3</v>
+        <v>-2.2550709296766803E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.17534663445571166</v>
+        <v>-0.20577522233299708</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5363,23 +5363,23 @@
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2760.4</v>
+        <v>2762</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-34.139999999999873</v>
+        <v>-31.700000000000273</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-31.731900000000223</v>
+        <v>-33.60550000000012</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2216696717569643E-2</v>
+        <v>-1.1346944201706241E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.12386373060869221</v>
+        <v>-0.12942608230071181</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5399,23 +5399,23 @@
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2760.2000000000003</v>
+        <v>2751</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-34.339999999999691</v>
+        <v>-42.700000000000273</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-28.331900000000132</v>
+        <v>-38.60550000000012</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.228826494672933E-2</v>
+        <v>-1.5284369634474935E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-4.5305219248042483E-2</v>
+        <v>-5.8724157016666861E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2759</v>
+        <v>2750.8</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-35.539999999999964</v>
+        <v>-42.900000000000091</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-29.331900000000132</v>
+        <v>-37.805499999999938</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.2717674321687942E-2</v>
+        <v>-1.5355959187797936E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-2.4691229401149463E-2</v>
+        <v>-3.0461549475794821E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5501,23 +5501,23 @@
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4838.6000000000004</v>
+        <v>4792.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-39.050000000000182</v>
+        <v>-10.019999999999527</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-47.092200000000048</v>
+        <v>-26.326700000000528</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-8.0059036620192831E-3</v>
+        <v>-2.0863648002189157E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.36526935457962978</v>
+        <v>-0.19038078801997607</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5538,23 +5538,23 @@
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4766.2</v>
+        <v>4699</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-111.45000000000073</v>
+        <v>-103.81999999999971</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-110.49219999999968</v>
+        <v>-113.52670000000035</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.2849115573163912E-2</v>
+        <v>-2.1617404546780183E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.23166464400568967</v>
+        <v>-0.24657352061171148</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5577,23 +5577,23 @@
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4637</v>
+        <v>4576.8</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-240.65000000000055</v>
+        <v>-226.01999999999953</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-233.6921999999995</v>
+        <v>-231.52670000000035</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.933727826542729E-2</v>
+        <v>-4.7061893427694665E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.18190006633213093</v>
+        <v>-0.18081674843272161</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
@@ -5613,23 +5613,23 @@
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4541.6000000000004</v>
+        <v>4463.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-336.05000000000018</v>
+        <v>-339.41999999999916</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-319.09220000000005</v>
+        <v>-327.52670000000035</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-6.8895875175968471E-2</v>
+        <v>-7.0674045957119361E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.13376060871930048</v>
+        <v>-0.14019579768667698</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
@@ -5672,19 +5672,19 @@
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>20.079999999999998</v>
+        <v>20.07</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.20079999999999998</v>
+        <v>0.20069999999999999</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.25361879562069978</v>
+        <v>0.24953787253623291</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-5.2818795620699799E-2</v>
+        <v>-4.8837872536232924E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5769,35 +5769,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43581</v>
+        <v>43585</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.88</v>
+        <v>2.9279999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B5" s="23">
-        <v>2.9209999999999998</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>1.4135729257749355E-2</v>
+        <v>-4.9353847599253924E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="B6" s="23">
-        <v>2.9279999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>2.3935726934612195E-3</v>
+        <v>1.07584733346311E-3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5805,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43591</v>
+        <v>43593</v>
       </c>
       <c r="B7" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-4.9353847599253924E-2</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.25361879562069978</v>
+        <v>0.24953787253623291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="B8" s="23">
-        <v>2.79</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.07584733346311E-3</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="B9" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="B10" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-2.1727976860448139E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="B11" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>3.3318110223616665E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="B12" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>-1.8902780209455159E-2</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43599</v>
+        <v>43601</v>
       </c>
       <c r="B13" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.774</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-6.258073065178827E-3</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.0830279924269536E-2</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43601</v>
+        <v>43605</v>
       </c>
       <c r="B15" s="23">
-        <v>2.774</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43602</v>
+        <v>43606</v>
       </c>
       <c r="B16" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.722</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
-        <v>43605</v>
+        <v>43607</v>
       </c>
       <c r="B17" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>-4.7873411263162765E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
-        <v>43606</v>
+        <v>43608</v>
       </c>
       <c r="B18" s="23">
-        <v>2.722</v>
+        <v>2.677</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>8.4855701934067867E-3</v>
+        <v>-1.1882798564742583E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
-        <v>43607</v>
+        <v>43609</v>
       </c>
       <c r="B19" s="23">
-        <v>2.7090000000000001</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>-4.7873411263162765E-3</v>
+        <v>5.2161072065531697E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
-        <v>43608</v>
+        <v>43612</v>
       </c>
       <c r="B20" s="23">
-        <v>2.677</v>
+        <v>2.714</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-1.1882798564742583E-2</v>
+        <v>8.5106896679086105E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
-        <v>43609</v>
+        <v>43613</v>
       </c>
       <c r="B21" s="23">
-        <v>2.6909999999999998</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>5.2161072065531697E-3</v>
+        <v>6.9763455332536488E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
-        <v>43612</v>
+        <v>43614</v>
       </c>
       <c r="B22" s="23">
-        <v>2.714</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>8.5106896679086105E-3</v>
+        <v>5.4734674141719069E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
-        <v>43613</v>
+        <v>43615</v>
       </c>
       <c r="B23" s="23">
-        <v>2.7330000000000001</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>6.9763455332536488E-3</v>
+        <v>-4.0109443015609383E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
-        <v>43614</v>
+        <v>43616</v>
       </c>
       <c r="B24" s="23">
-        <v>2.7480000000000002</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>5.4734674141719069E-3</v>
+        <v>-3.2936900773263512E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
-        <v>43615</v>
+        <v>43619</v>
       </c>
       <c r="B25" s="23">
-        <v>2.7370000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-4.0109443015609383E-3</v>
+        <v>4.3891804187631868E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="B26" s="23">
-        <v>2.7280000000000002</v>
+        <v>2.722</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-3.2936900773263512E-3</v>
+        <v>-6.5910161707046647E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
-        <v>43619</v>
+        <v>43621</v>
       </c>
       <c r="B27" s="23">
-        <v>2.74</v>
+        <v>2.718</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>4.3891804187631868E-3</v>
+        <v>-1.4705885003223535E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
-        <v>43620</v>
+        <v>43622</v>
       </c>
       <c r="B28" s="23">
-        <v>2.722</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-6.5910161707046647E-3</v>
+        <v>-5.1641575482342635E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
-        <v>43621</v>
+        <v>43626</v>
       </c>
       <c r="B29" s="23">
-        <v>2.718</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-1.4705885003223535E-3</v>
+        <v>1.2860732100223336E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
-        <v>43622</v>
+        <v>43627</v>
       </c>
       <c r="B30" s="23">
-        <v>2.7040000000000002</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-5.1641575482342635E-3</v>
+        <v>2.7014068411256163E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
-        <v>43626</v>
+        <v>43628</v>
       </c>
       <c r="B31" s="23">
-        <v>2.7389999999999999</v>
+        <v>2.802</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>1.2860732100223336E-2</v>
+        <v>-4.2735107773820497E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
-        <v>43627</v>
+        <v>43629</v>
       </c>
       <c r="B32" s="23">
-        <v>2.8140000000000001</v>
+        <v>2.7959999999999998</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>2.7014068411256163E-2</v>
+        <v>-2.1436235432515643E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
-        <v>43628</v>
+        <v>43630</v>
       </c>
       <c r="B33" s="23">
-        <v>2.802</v>
+        <v>2.79</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>-4.2735107773820497E-3</v>
+        <v>-2.1482285382894949E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
-        <v>43629</v>
+        <v>43633</v>
       </c>
       <c r="B34" s="23">
-        <v>2.7959999999999998</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="D34">
         <f>LN(B34/B33)</f>
-        <v>-2.1436235432515643E-3</v>
+        <v>3.2206147000421572E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">

--- a/basis.xlsx
+++ b/basis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6577F-C8C0-4806-9EFB-486E65862BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF960C01-5366-4662-BF11-E31382863B3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>到期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,13 +198,6 @@
   </si>
   <si>
     <t>IC1912.CFE</t>
-  </si>
-  <si>
-    <t>IF02.CFE</t>
-  </si>
-  <si>
-    <t>IF03.CFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IF1906.CFE</t>
@@ -350,6 +343,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -474,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -609,119 +609,119 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2787.4</v>
+        <v>2798.4</v>
         <stp/>
         <stp>IH1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>3604.8</v>
+        <v>3612</v>
         <stp/>
         <stp>IF1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2762</v>
+        <v>2774</v>
         <stp/>
         <stp>IH1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>4576.8</v>
+        <v>4575</v>
         <stp/>
         <stp>IC1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>4699</v>
+        <v>4705</v>
         <stp/>
         <stp>IC1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>4792.8</v>
+        <v>4790.8</v>
         <stp/>
         <stp>IC1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>3652</v>
+        <v>3661.2000000000003</v>
         <stp/>
         <stp>IF1906.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>3621.8</v>
+        <v>3633.4</v>
         <stp/>
         <stp>IF1907.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2751</v>
+        <v>2759.4</v>
         <stp/>
         <stp>IH1909.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2750.8</v>
+        <v>2757.4</v>
         <stp/>
         <stp>IH1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3596.8</v>
+        <v>3603.4</v>
         <stp/>
         <stp>IF1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>4463.4000000000005</v>
+        <v>4460.4000000000005</v>
         <stp/>
         <stp>IC1912.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>3654.82</v>
+        <v>3667.62</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E3" s="1"/>
         <tr r="E2" s="1"/>
+        <tr r="E4" s="1"/>
         <tr r="E5" s="1"/>
-        <tr r="E4" s="1"/>
-        <tr r="E3" s="1"/>
         <tr r="L2" s="1"/>
       </tp>
       <tp>
-        <v>2793.7000000000003</v>
+        <v>2806.4500000000003</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E8" s="1"/>
+        <tr r="E9" s="1"/>
         <tr r="E10" s="1"/>
-        <tr r="E8" s="1"/>
         <tr r="E11" s="1"/>
-        <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>4802.82</v>
+        <v>4797.1500000000005</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
+        <tr r="E16" s="1"/>
+        <tr r="E17" s="1"/>
         <tr r="E15" s="1"/>
         <tr r="E14" s="1"/>
-        <tr r="E16" s="1"/>
-        <tr r="E17" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5076,7 +5076,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="K1" s="33">
         <f ca="1">[1]!TDaysOffset(K2,"Offset=-1")</f>
-        <v>43630</v>
+        <v>43633</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -5137,27 +5137,27 @@
         <v>IF1906.CFE</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10">
         <f>RTD("wdf.rtq",,C2,"Rt_Price")</f>
-        <v>3652</v>
+        <v>3661.2000000000003</v>
       </c>
       <c r="E2" s="10">
         <f>D2-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-2.8200000000001637</v>
+        <v>-6.419999999999618</v>
       </c>
       <c r="F2" s="28">
         <f ca="1">[1]!s_dq_close(C2,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-9.8798999999999069</v>
+        <v>-2.8247999999998683</v>
       </c>
       <c r="G2" s="11">
         <f>E2/[1]!i_dq_close("000300.SH","")</f>
-        <v>-7.7158281294363649E-4</v>
+        <v>-1.7504546887850026E-3</v>
       </c>
       <c r="H2" s="12">
         <f ca="1">365*G2/(I2-TODAY())</f>
-        <v>-7.040693168110683E-2</v>
+        <v>-0.21297198713550866</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>[1]!s_info_lddate(C2)</f>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="K2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="L2" s="29">
         <f>RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>3654.82</v>
+        <v>3667.62</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -5182,27 +5182,27 @@
         <v>IF1907.CFE</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10">
         <f>RTD("wdf.rtq",,C3,"Rt_Price")</f>
-        <v>3621.8</v>
+        <v>3633.4</v>
       </c>
       <c r="E3" s="10">
         <f>D3-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-33.019999999999982</v>
+        <v>-34.2199999999998</v>
       </c>
       <c r="F3" s="28">
         <f ca="1">[1]!s_dq_close(C3,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-39.279899999999998</v>
+        <v>-33.024799999999686</v>
       </c>
       <c r="G3" s="11">
         <f>E3/[1]!i_dq_close("000300.SH","")</f>
-        <v>-9.0346327955309873E-3</v>
+        <v>-9.3303052103155763E-3</v>
       </c>
       <c r="H3" s="12">
         <f ca="1">365*G3/(I3-TODAY())</f>
-        <v>-0.10305128032402533</v>
+        <v>-0.10985681941178017</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>[1]!s_info_lddate(C3)</f>
@@ -5211,35 +5211,35 @@
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="37">
+        <v>43591</v>
+      </c>
+      <c r="B4" s="9">
         <f>[1]!s_info_code2(A4,"")</f>
-        <v>IF1909.CFE</v>
+        <v>0</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="10">
         <f>RTD("wdf.rtq",,C4,"Rt_Price")</f>
-        <v>3604.8</v>
+        <v>3612</v>
       </c>
       <c r="E4" s="10">
         <f>D4-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-50.019999999999982</v>
+        <v>-55.619999999999891</v>
       </c>
       <c r="F4" s="28">
         <f ca="1">[1]!s_dq_close(C4,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-52.879899999999907</v>
+        <v>-50.024799999999686</v>
       </c>
       <c r="G4" s="11">
         <f>E4/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.3686018547318598E-2</v>
+        <v>-1.5165154172932623E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4" ca="1" si="0">365*G4/(I4-TODAY())</f>
-        <v>-5.2583123892329345E-2</v>
+        <v>-5.8885970990642633E-2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>[1]!s_info_lddate(C4)</f>
@@ -5248,35 +5248,35 @@
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="str">
+      <c r="A5" s="37">
+        <v>43592</v>
+      </c>
+      <c r="B5" s="9">
         <f>[1]!s_info_code2(A5,"")</f>
-        <v>IF1912.CFE</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="10">
         <f>RTD("wdf.rtq",,C5,"Rt_Price")</f>
-        <v>3596.8</v>
+        <v>3603.4</v>
       </c>
       <c r="E5" s="10">
         <f>D5-RTD("wdf.rtq",,"000300.SH","Rt_Price")</f>
-        <v>-58.019999999999982</v>
+        <v>-64.2199999999998</v>
       </c>
       <c r="F5" s="28">
         <f ca="1">[1]!s_dq_close(C5,$K$1)-[1]!i_dq_close("000300.SH",$K$1)</f>
-        <v>-63.879899999999907</v>
+        <v>-58.024799999999686</v>
       </c>
       <c r="G5" s="11">
         <f>E5/[1]!i_dq_close("000300.SH","")</f>
-        <v>-1.587490595992453E-2</v>
+        <v>-1.7510000017722616E-2</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">365*G5/(I5-TODAY())</f>
-        <v>-3.1490981931372029E-2</v>
+        <v>-3.4924316975239102E-2</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>[1]!s_info_lddate(C5)</f>
@@ -5285,12 +5285,16 @@
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="26">
+        <v>43593</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="34">
+        <v>43594</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -5315,35 +5319,35 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="str">
+      <c r="A8" s="37">
+        <v>43595</v>
+      </c>
+      <c r="B8" s="9">
         <f>[1]!s_info_code2(A8,"")</f>
-        <v>IF1906.CFE</v>
+        <v>0</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10">
         <f>RTD("wdf.rtq",,C8,"Rt_Price")</f>
-        <v>2787.4</v>
+        <v>2798.4</v>
       </c>
       <c r="E8" s="10">
         <f>D8-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-6.3000000000001819</v>
+        <v>-8.0500000000001819</v>
       </c>
       <c r="F8" s="10">
         <f ca="1">[1]!s_dq_close(C8,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-10.405500000000302</v>
+        <v>-6.3036999999999352</v>
       </c>
       <c r="G8" s="11">
         <f>E8/[1]!i_dq_close("000016.SH","")</f>
-        <v>-2.2550709296766803E-3</v>
+        <v>-2.8683883648191566E-3</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">365*G8/(I8-TODAY())</f>
-        <v>-0.20577522233299708</v>
+        <v>-0.34898725105299738</v>
       </c>
       <c r="I8" s="9" t="str">
         <f>[1]!s_info_lddate(C8)</f>
@@ -5351,35 +5355,35 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="str">
+      <c r="A9" s="37">
+        <v>43598</v>
+      </c>
+      <c r="B9" s="9">
         <f>[1]!s_info_code2(A9,"")</f>
-        <v>IF1907.CFE</v>
+        <v>0</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10">
         <f>RTD("wdf.rtq",,C9,"Rt_Price")</f>
-        <v>2762</v>
+        <v>2774</v>
       </c>
       <c r="E9" s="10">
         <f>D9-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-31.700000000000273</v>
+        <v>-32.450000000000273</v>
       </c>
       <c r="F9" s="10">
         <f ca="1">[1]!s_dq_close(C9,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-33.60550000000012</v>
+        <v>-31.703700000000026</v>
       </c>
       <c r="G9" s="11">
         <f>E9/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.1346944201706241E-2</v>
+        <v>-1.1562633843277057E-2</v>
       </c>
       <c r="H9" s="12">
         <f ca="1">365*G9/(I9-TODAY())</f>
-        <v>-0.12942608230071181</v>
+        <v>-0.13614068879987504</v>
       </c>
       <c r="I9" s="9" t="str">
         <f>[1]!s_info_lddate(C9)</f>
@@ -5387,35 +5391,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="str">
+      <c r="A10" s="37">
+        <v>43599</v>
+      </c>
+      <c r="B10" s="9">
         <f>[1]!s_info_code2(A10,"")</f>
-        <v>IF1909.CFE</v>
+        <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="10">
         <f>RTD("wdf.rtq",,C10,"Rt_Price")</f>
-        <v>2751</v>
+        <v>2759.4</v>
       </c>
       <c r="E10" s="10">
         <f>D10-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-42.700000000000273</v>
+        <v>-47.050000000000182</v>
       </c>
       <c r="F10" s="10">
         <f ca="1">[1]!s_dq_close(C10,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-38.60550000000012</v>
+        <v>-42.703700000000026</v>
       </c>
       <c r="G10" s="11">
         <f>E10/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5284369634474935E-2</v>
+        <v>-1.6764928268911652E-2</v>
       </c>
       <c r="H10" s="12">
         <f ca="1">365*G10/(I10-TODAY())</f>
-        <v>-5.8724157016666861E-2</v>
+        <v>-6.5097859767582478E-2</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>[1]!s_info_lddate(C10)</f>
@@ -5424,35 +5428,35 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9" t="str">
+      <c r="A11" s="37">
+        <v>43600</v>
+      </c>
+      <c r="B11" s="9">
         <f>[1]!s_info_code2(A11,"")</f>
-        <v>IF1912.CFE</v>
+        <v>0</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="10">
         <f>RTD("wdf.rtq",,C11,"Rt_Price")</f>
-        <v>2750.8</v>
+        <v>2757.4</v>
       </c>
       <c r="E11" s="10">
         <f>D11-RTD("wdf.rtq",,"000016.SH","Rt_Price")</f>
-        <v>-42.900000000000091</v>
+        <v>-49.050000000000182</v>
       </c>
       <c r="F11" s="10">
         <f ca="1">[1]!s_dq_close(C11,$K$1)-[1]!i_dq_close("000016.SH",$K$1)</f>
-        <v>-37.805499999999938</v>
+        <v>-42.903699999999844</v>
       </c>
       <c r="G11" s="11">
         <f>E11/[1]!i_dq_close("000016.SH","")</f>
-        <v>-1.5355959187797936E-2</v>
+        <v>-1.7477571340916393E-2</v>
       </c>
       <c r="H11" s="12">
         <f ca="1">365*G11/(I11-TODAY())</f>
-        <v>-3.0461549475794821E-2</v>
+        <v>-3.4859636827510837E-2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f>[1]!s_info_lddate(C11)</f>
@@ -5460,11 +5464,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="26">
+        <v>43601</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="34">
+        <v>43602</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -5489,35 +5497,35 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9" t="str">
+      <c r="A14" s="37">
+        <v>43605</v>
+      </c>
+      <c r="B14" s="9">
         <f>[1]!s_info_code2(A14,"")</f>
-        <v>IF1906.CFE</v>
+        <v>0</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10">
         <f>RTD("wdf.rtq",,C14,"Rt_Price")</f>
-        <v>4792.8</v>
+        <v>4790.8</v>
       </c>
       <c r="E14" s="10">
         <f>D14-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-10.019999999999527</v>
+        <v>-6.3500000000003638</v>
       </c>
       <c r="F14" s="10">
         <f ca="1">[1]!s_dq_close(C14,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-26.326700000000528</v>
+        <v>-10.018500000000131</v>
       </c>
       <c r="G14" s="11">
         <f>E14/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.0863648002189157E-3</v>
+        <v>-1.3237034980877306E-3</v>
       </c>
       <c r="H14" s="12">
         <f ca="1">365*G14/(I14-TODAY())</f>
-        <v>-0.19038078801997607</v>
+        <v>-0.16105059226734056</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]!s_info_lddate(C14)</f>
@@ -5526,35 +5534,35 @@
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="str">
+      <c r="A15" s="37">
+        <v>43606</v>
+      </c>
+      <c r="B15" s="9">
         <f>[1]!s_info_code2(A15,"")</f>
-        <v>IF1907.CFE</v>
+        <v>0</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10">
         <f>RTD("wdf.rtq",,C15,"Rt_Price")</f>
-        <v>4699</v>
+        <v>4705</v>
       </c>
       <c r="E15" s="10">
         <f>D15-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-103.81999999999971</v>
+        <v>-92.150000000000546</v>
       </c>
       <c r="F15" s="10">
         <f ca="1">[1]!s_dq_close(C15,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-113.52670000000035</v>
+        <v>-103.81850000000031</v>
       </c>
       <c r="G15" s="11">
         <f>E15/[1]!i_dq_close("000905.SH","")</f>
-        <v>-2.1617404546780183E-2</v>
+        <v>-1.920933501555561E-2</v>
       </c>
       <c r="H15" s="12">
         <f ca="1">365*G15/(I15-TODAY())</f>
-        <v>-0.24657352061171148</v>
+        <v>-0.22617442840896121</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>[1]!s_info_lddate(C15)</f>
@@ -5565,97 +5573,114 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="str">
+      <c r="A16" s="37">
+        <v>43607</v>
+      </c>
+      <c r="B16" s="9">
         <f>[1]!s_info_code2(A16,"")</f>
-        <v>IF1909.CFE</v>
+        <v>0</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="10">
         <f>RTD("wdf.rtq",,C16,"Rt_Price")</f>
-        <v>4576.8</v>
+        <v>4575</v>
       </c>
       <c r="E16" s="10">
         <f>D16-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-226.01999999999953</v>
+        <v>-222.15000000000055</v>
       </c>
       <c r="F16" s="10">
         <f ca="1">[1]!s_dq_close(C16,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-231.52670000000035</v>
+        <v>-226.01850000000013</v>
       </c>
       <c r="G16" s="11">
         <f>E16/[1]!i_dq_close("000905.SH","")</f>
-        <v>-4.7061893427694665E-2</v>
+        <v>-4.6308776708688701E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16" ca="1" si="1">365*G16/(I16-TODAY())</f>
-        <v>-0.18081674843272161</v>
+        <v>-0.17981599466671674</v>
       </c>
       <c r="I16" s="9" t="str">
         <f>[1]!s_info_lddate(C16)</f>
         <v>2019-09-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="str">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="37">
+        <v>43608</v>
+      </c>
+      <c r="B17" s="9">
         <f>[1]!s_info_code2(A17,"")</f>
-        <v>IF1912.CFE</v>
+        <v>0</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="10">
         <f>RTD("wdf.rtq",,C17,"Rt_Price")</f>
-        <v>4463.4000000000005</v>
+        <v>4460.4000000000005</v>
       </c>
       <c r="E17" s="10">
         <f>D17-RTD("wdf.rtq",,"000905.SH","Rt_Price")</f>
-        <v>-339.41999999999916</v>
+        <v>-336.75</v>
       </c>
       <c r="F17" s="10">
         <f ca="1">[1]!s_dq_close(C17,$K$1)-[1]!i_dq_close("000905.SH",$K$1)</f>
-        <v>-327.52670000000035</v>
+        <v>-339.41850000000068</v>
       </c>
       <c r="G17" s="11">
         <f>E17/[1]!i_dq_close("000905.SH","")</f>
-        <v>-7.0674045957119361E-2</v>
+        <v>-7.0197976847404378E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" ref="H17" ca="1" si="2">365*G17/(I17-TODAY())</f>
-        <v>-0.14019579768667698</v>
+        <v>-0.14001235819291036</v>
       </c>
       <c r="I17" s="9" t="str">
         <f>[1]!s_info_lddate(C17)</f>
         <v>2019-12-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
+        <v>43609</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="26">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="26">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="26">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="26">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="26">
+        <v>43619</v>
+      </c>
       <c r="H24" s="14" t="s">
         <v>16</v>
       </c>
@@ -5666,62 +5691,82 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
+        <v>43620</v>
+      </c>
       <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="17">
-        <v>20.07</v>
+        <v>19.38</v>
       </c>
       <c r="H25" s="18">
         <f>G25/100</f>
-        <v>0.20069999999999999</v>
+        <v>0.1938</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.STDEV.S(Sheet3!D5:D34)*SQRT(260)</f>
-        <v>0.24953787253623291</v>
+        <v>0.20286788881851991</v>
       </c>
       <c r="J25" s="19">
         <f>H25-Sheet3!F7</f>
-        <v>-4.8837872536232924E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
+        <v>-9.0678888185199147E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="26">
+        <v>43621</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="26">
+        <v>43622</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="26">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="26">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="26">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="26">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="26">
+        <v>43630</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
+      <c r="A33" s="26">
+        <v>43633</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
+      <c r="A34" s="26">
+        <v>43634</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5769,35 +5814,35 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>43585</v>
+        <v>43591</v>
       </c>
       <c r="B4" s="23">
         <f>[1]!WSD("510050.SH",B3:B3,"-30TD","","TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowParams=Y","cols=1;rows=31")</f>
-        <v>2.9279999999999999</v>
+        <v>2.7869999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>43591</v>
+        <v>43592</v>
       </c>
       <c r="B5" s="23">
-        <v>2.7869999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D5">
         <f>LN(B5/B4)</f>
-        <v>-4.9353847599253924E-2</v>
+        <v>1.07584733346311E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B6" s="23">
-        <v>2.79</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">LN(B6/B5)</f>
-        <v>1.07584733346311E-3</v>
+        <v>-1.6260520871780291E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -5805,342 +5850,342 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B7" s="23">
-        <v>2.7450000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-1.6260520871780291E-2</v>
+        <v>-2.1727976860448139E-2</v>
       </c>
       <c r="F7" s="4">
         <f>_xlfn.STDEV.S(D5:D34)*SQRT(260)</f>
-        <v>0.24953787253623291</v>
+        <v>0.20286788881851991</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B8" s="23">
-        <v>2.6859999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-2.1727976860448139E-2</v>
+        <v>3.3318110223616665E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
-        <v>43595</v>
+        <v>43598</v>
       </c>
       <c r="B9" s="23">
-        <v>2.7770000000000001</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.3318110223616665E-2</v>
+        <v>-1.8902780209455159E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="B10" s="23">
-        <v>2.7250000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D10">
         <f>LN(B10/B9)</f>
-        <v>-1.8902780209455159E-2</v>
+        <v>-6.258073065178827E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B11" s="23">
-        <v>2.7080000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D11">
         <f>LN(B11/B10)</f>
-        <v>-6.258073065178827E-3</v>
+        <v>2.0830279924269536E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B12" s="23">
-        <v>2.7650000000000001</v>
+        <v>2.774</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D33" si="1">LN(B12/B11)</f>
-        <v>2.0830279924269536E-2</v>
+        <v>3.2496869183417103E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B13" s="23">
-        <v>2.774</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3.2496869183417103E-3</v>
+        <v>-1.8556108201017329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B14" s="23">
-        <v>2.7229999999999999</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.8556108201017329E-2</v>
+        <v>-8.8528796557549513E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="B15" s="23">
-        <v>2.6989999999999998</v>
+        <v>2.722</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-8.8528796557549513E-3</v>
+        <v>8.4855701934067867E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B16" s="23">
-        <v>2.722</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
- 